--- a/data/nzd0171/nzd0171.xlsx
+++ b/data/nzd0171/nzd0171.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L623"/>
+  <dimension ref="A1:L634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23735,6 +23735,424 @@
         <v>347.0754545454545</v>
       </c>
       <c r="L623" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>359.93</v>
+      </c>
+      <c r="C624" t="inlineStr"/>
+      <c r="D624" t="inlineStr"/>
+      <c r="E624" t="inlineStr"/>
+      <c r="F624" t="inlineStr"/>
+      <c r="G624" t="inlineStr"/>
+      <c r="H624" t="inlineStr"/>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>340.64</v>
+      </c>
+      <c r="C625" t="n">
+        <v>350.6309090909091</v>
+      </c>
+      <c r="D625" t="n">
+        <v>351.4822222222222</v>
+      </c>
+      <c r="E625" t="n">
+        <v>356.36</v>
+      </c>
+      <c r="F625" t="n">
+        <v>353.9</v>
+      </c>
+      <c r="G625" t="n">
+        <v>350.3642857142857</v>
+      </c>
+      <c r="H625" t="n">
+        <v>353.5522222222222</v>
+      </c>
+      <c r="I625" t="n">
+        <v>361.42</v>
+      </c>
+      <c r="J625" t="n">
+        <v>345.9809090909091</v>
+      </c>
+      <c r="K625" t="n">
+        <v>337.990909090909</v>
+      </c>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>363.58</v>
+      </c>
+      <c r="C626" t="n">
+        <v>361.110909090909</v>
+      </c>
+      <c r="D626" t="n">
+        <v>364.0155555555555</v>
+      </c>
+      <c r="E626" t="n">
+        <v>364.34</v>
+      </c>
+      <c r="F626" t="n">
+        <v>366.09</v>
+      </c>
+      <c r="G626" t="n">
+        <v>363.7385714285714</v>
+      </c>
+      <c r="H626" t="n">
+        <v>361.1755555555556</v>
+      </c>
+      <c r="I626" t="n">
+        <v>369.93</v>
+      </c>
+      <c r="J626" t="n">
+        <v>349.8109090909091</v>
+      </c>
+      <c r="K626" t="n">
+        <v>345.240909090909</v>
+      </c>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>331.67</v>
+      </c>
+      <c r="C627" t="n">
+        <v>345.6436363636363</v>
+      </c>
+      <c r="D627" t="n">
+        <v>342.1066666666667</v>
+      </c>
+      <c r="E627" t="n">
+        <v>344.01</v>
+      </c>
+      <c r="F627" t="n">
+        <v>342.25</v>
+      </c>
+      <c r="G627" t="n">
+        <v>341.03</v>
+      </c>
+      <c r="H627" t="n">
+        <v>345.5066666666667</v>
+      </c>
+      <c r="I627" t="n">
+        <v>353.88</v>
+      </c>
+      <c r="J627" t="n">
+        <v>339.4536363636363</v>
+      </c>
+      <c r="K627" t="n">
+        <v>334.0436363636364</v>
+      </c>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>361</v>
+      </c>
+      <c r="C628" t="n">
+        <v>365.0381818181818</v>
+      </c>
+      <c r="D628" t="n">
+        <v>365.3655555555556</v>
+      </c>
+      <c r="E628" t="n">
+        <v>368.75</v>
+      </c>
+      <c r="F628" t="n">
+        <v>365.04</v>
+      </c>
+      <c r="G628" t="n">
+        <v>366.2857142857143</v>
+      </c>
+      <c r="H628" t="n">
+        <v>361.6755555555556</v>
+      </c>
+      <c r="I628" t="n">
+        <v>371.19</v>
+      </c>
+      <c r="J628" t="n">
+        <v>352.2381818181818</v>
+      </c>
+      <c r="K628" t="n">
+        <v>349.9081818181818</v>
+      </c>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>322.62</v>
+      </c>
+      <c r="C629" t="inlineStr"/>
+      <c r="D629" t="inlineStr"/>
+      <c r="E629" t="n">
+        <v>346.89</v>
+      </c>
+      <c r="F629" t="n">
+        <v>351.55</v>
+      </c>
+      <c r="G629" t="n">
+        <v>346.4314285714286</v>
+      </c>
+      <c r="H629" t="n">
+        <v>350.5855555555555</v>
+      </c>
+      <c r="I629" t="n">
+        <v>355.21</v>
+      </c>
+      <c r="J629" t="n">
+        <v>343.5890909090909</v>
+      </c>
+      <c r="K629" t="n">
+        <v>335.509090909091</v>
+      </c>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>343.77</v>
+      </c>
+      <c r="C630" t="n">
+        <v>342.8845454545454</v>
+      </c>
+      <c r="D630" t="n">
+        <v>346.2022222222222</v>
+      </c>
+      <c r="E630" t="n">
+        <v>350.91</v>
+      </c>
+      <c r="F630" t="n">
+        <v>350.26</v>
+      </c>
+      <c r="G630" t="n">
+        <v>352.8785714285714</v>
+      </c>
+      <c r="H630" t="n">
+        <v>357.0722222222223</v>
+      </c>
+      <c r="I630" t="n">
+        <v>362.34</v>
+      </c>
+      <c r="J630" t="n">
+        <v>345.8545454545454</v>
+      </c>
+      <c r="K630" t="n">
+        <v>338.5445454545454</v>
+      </c>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:05:37+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>351.18</v>
+      </c>
+      <c r="C631" t="n">
+        <v>356.0118181818182</v>
+      </c>
+      <c r="D631" t="n">
+        <v>353.7677777777778</v>
+      </c>
+      <c r="E631" t="n">
+        <v>357.8</v>
+      </c>
+      <c r="F631" t="n">
+        <v>356.38</v>
+      </c>
+      <c r="G631" t="n">
+        <v>355.4328571428572</v>
+      </c>
+      <c r="H631" t="inlineStr"/>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="n">
+        <v>344.5118181818182</v>
+      </c>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>342.79</v>
+      </c>
+      <c r="C632" t="n">
+        <v>358.4663636363636</v>
+      </c>
+      <c r="D632" t="n">
+        <v>356.9488888888889</v>
+      </c>
+      <c r="E632" t="n">
+        <v>359.64</v>
+      </c>
+      <c r="F632" t="n">
+        <v>356.53</v>
+      </c>
+      <c r="G632" t="n">
+        <v>350.8614285714286</v>
+      </c>
+      <c r="H632" t="n">
+        <v>353.6888888888889</v>
+      </c>
+      <c r="I632" t="n">
+        <v>362.59</v>
+      </c>
+      <c r="J632" t="n">
+        <v>348.2363636363636</v>
+      </c>
+      <c r="K632" t="n">
+        <v>340.9263636363636</v>
+      </c>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr"/>
+      <c r="C633" t="inlineStr"/>
+      <c r="D633" t="inlineStr"/>
+      <c r="E633" t="n">
+        <v>340.52</v>
+      </c>
+      <c r="F633" t="inlineStr"/>
+      <c r="G633" t="n">
+        <v>358.3485714285715</v>
+      </c>
+      <c r="H633" t="inlineStr"/>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:57+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>349.69</v>
+      </c>
+      <c r="C634" t="n">
+        <v>355.0709090909091</v>
+      </c>
+      <c r="D634" t="n">
+        <v>359.0255555555556</v>
+      </c>
+      <c r="E634" t="n">
+        <v>359.74</v>
+      </c>
+      <c r="F634" t="n">
+        <v>357.1</v>
+      </c>
+      <c r="G634" t="n">
+        <v>356.2128571428572</v>
+      </c>
+      <c r="H634" t="n">
+        <v>361.5555555555555</v>
+      </c>
+      <c r="I634" t="n">
+        <v>370.68</v>
+      </c>
+      <c r="J634" t="n">
+        <v>360.6509090909091</v>
+      </c>
+      <c r="K634" t="n">
+        <v>352.4109090909091</v>
+      </c>
+      <c r="L634" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -23751,7 +24169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B692"/>
+  <dimension ref="A1:B706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30679,6 +31097,146 @@
       </c>
       <c r="B692" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>-0.71</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -30847,28 +31405,28 @@
         <v>0.0436</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1300756940811158</v>
+        <v>-0.1535372276956203</v>
       </c>
       <c r="J2" t="n">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="K2" t="n">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008175362872819836</v>
+        <v>0.01132300741779757</v>
       </c>
       <c r="M2" t="n">
-        <v>7.70714276312874</v>
+        <v>7.779802927532344</v>
       </c>
       <c r="N2" t="n">
-        <v>96.18884942326395</v>
+        <v>98.05149647801154</v>
       </c>
       <c r="O2" t="n">
-        <v>9.807591418042655</v>
+        <v>9.902095559931318</v>
       </c>
       <c r="P2" t="n">
-        <v>356.2568466372359</v>
+        <v>356.5130476191223</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -30924,28 +31482,28 @@
         <v>0.0567</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1364785854335708</v>
+        <v>-0.1422538659451149</v>
       </c>
       <c r="J3" t="n">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="K3" t="n">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009278092804788862</v>
+        <v>0.01028707671474238</v>
       </c>
       <c r="M3" t="n">
-        <v>7.412973218242032</v>
+        <v>7.38790702737032</v>
       </c>
       <c r="N3" t="n">
-        <v>95.06903313676855</v>
+        <v>94.39262095462411</v>
       </c>
       <c r="O3" t="n">
-        <v>9.750335026898744</v>
+        <v>9.715586495658618</v>
       </c>
       <c r="P3" t="n">
-        <v>359.6495553604767</v>
+        <v>359.711632181726</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -31001,28 +31559,28 @@
         <v>0.0458</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1101359072341315</v>
+        <v>-0.1144513027326892</v>
       </c>
       <c r="J4" t="n">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="K4" t="n">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006339690570360101</v>
+        <v>0.006979578784044427</v>
       </c>
       <c r="M4" t="n">
-        <v>7.070637758932206</v>
+        <v>7.063171482910223</v>
       </c>
       <c r="N4" t="n">
-        <v>92.1071380456664</v>
+        <v>91.58095349981487</v>
       </c>
       <c r="O4" t="n">
-        <v>9.597246378293432</v>
+        <v>9.569793806546453</v>
       </c>
       <c r="P4" t="n">
-        <v>359.0260291328686</v>
+        <v>359.0719858354053</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -31078,28 +31636,28 @@
         <v>0.0411</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09737928869584803</v>
+        <v>-0.1106323437962846</v>
       </c>
       <c r="J5" t="n">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="K5" t="n">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00559117586937008</v>
+        <v>0.007313806368170694</v>
       </c>
       <c r="M5" t="n">
-        <v>7.015145735629118</v>
+        <v>7.023956258919754</v>
       </c>
       <c r="N5" t="n">
-        <v>82.44695955204722</v>
+        <v>82.51016741445339</v>
       </c>
       <c r="O5" t="n">
-        <v>9.080030812285122</v>
+        <v>9.083510742793965</v>
       </c>
       <c r="P5" t="n">
-        <v>360.8143769783763</v>
+        <v>360.956649606554</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -31155,28 +31713,28 @@
         <v>0.0404</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08513710040879921</v>
+        <v>-0.08998423978473236</v>
       </c>
       <c r="J6" t="n">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="K6" t="n">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003960129528686074</v>
+        <v>0.004525346769118088</v>
       </c>
       <c r="M6" t="n">
-        <v>7.202559396125007</v>
+        <v>7.16928216825553</v>
       </c>
       <c r="N6" t="n">
-        <v>87.7267776056749</v>
+        <v>87.02388534532002</v>
       </c>
       <c r="O6" t="n">
-        <v>9.366257395869221</v>
+        <v>9.328659354125866</v>
       </c>
       <c r="P6" t="n">
-        <v>358.996742950129</v>
+        <v>359.0489032066955</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -31232,28 +31790,28 @@
         <v>0.0355</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03652809087354378</v>
+        <v>-0.04441173418032366</v>
       </c>
       <c r="J7" t="n">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="K7" t="n">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007805800095951332</v>
+        <v>0.001179802882912417</v>
       </c>
       <c r="M7" t="n">
-        <v>7.109903462464014</v>
+        <v>7.084978031072072</v>
       </c>
       <c r="N7" t="n">
-        <v>82.57498461902131</v>
+        <v>82.03961928816526</v>
       </c>
       <c r="O7" t="n">
-        <v>9.087077892206125</v>
+        <v>9.057572483185837</v>
       </c>
       <c r="P7" t="n">
-        <v>357.1558059628121</v>
+        <v>357.2406313714622</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -31309,28 +31867,28 @@
         <v>0.0453</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03997087186839666</v>
+        <v>0.03318619906242045</v>
       </c>
       <c r="J8" t="n">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="K8" t="n">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001081588950989754</v>
+        <v>0.0007622400499509574</v>
       </c>
       <c r="M8" t="n">
-        <v>6.211087766907738</v>
+        <v>6.192794747360248</v>
       </c>
       <c r="N8" t="n">
-        <v>71.57998289916914</v>
+        <v>70.97751868184439</v>
       </c>
       <c r="O8" t="n">
-        <v>8.460495428706828</v>
+        <v>8.424815646757168</v>
       </c>
       <c r="P8" t="n">
-        <v>356.7898887160803</v>
+        <v>356.8624565918802</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -31386,28 +31944,28 @@
         <v>0.0506</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1197299624343913</v>
+        <v>0.1123766582731271</v>
       </c>
       <c r="J9" t="n">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="K9" t="n">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01122120371067059</v>
+        <v>0.01007554050234971</v>
       </c>
       <c r="M9" t="n">
-        <v>5.916508922997971</v>
+        <v>5.91820877597833</v>
       </c>
       <c r="N9" t="n">
-        <v>60.30998859396695</v>
+        <v>60.04876891235631</v>
       </c>
       <c r="O9" t="n">
-        <v>7.765950591779924</v>
+        <v>7.749114072741238</v>
       </c>
       <c r="P9" t="n">
-        <v>362.6607904723449</v>
+        <v>362.7404316582344</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -31463,28 +32021,28 @@
         <v>0.0567</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1644007215623641</v>
+        <v>0.1596186208591938</v>
       </c>
       <c r="J10" t="n">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="K10" t="n">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01557238227039304</v>
+        <v>0.01503300023729104</v>
       </c>
       <c r="M10" t="n">
-        <v>6.840397783008783</v>
+        <v>6.809329351749252</v>
       </c>
       <c r="N10" t="n">
-        <v>80.29935771755719</v>
+        <v>79.57362039671501</v>
       </c>
       <c r="O10" t="n">
-        <v>8.96099088926873</v>
+        <v>8.920404721575979</v>
       </c>
       <c r="P10" t="n">
-        <v>345.5508302202687</v>
+        <v>345.6026610633399</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -31540,28 +32098,28 @@
         <v>0.0611</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2164332342641836</v>
+        <v>0.206529621210622</v>
       </c>
       <c r="J11" t="n">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="K11" t="n">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02417922045883136</v>
+        <v>0.02264715048824006</v>
       </c>
       <c r="M11" t="n">
-        <v>7.133911319448868</v>
+        <v>7.109497455762973</v>
       </c>
       <c r="N11" t="n">
-        <v>88.01452452379091</v>
+        <v>87.12612658299864</v>
       </c>
       <c r="O11" t="n">
-        <v>9.381605647424694</v>
+        <v>9.334137698952091</v>
       </c>
       <c r="P11" t="n">
-        <v>339.277377897637</v>
+        <v>339.3857137329791</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -31598,7 +32156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L623"/>
+  <dimension ref="A1:L634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64468,6 +65026,600 @@
         </is>
       </c>
     </row>
+    <row r="624">
+      <c r="A624" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>-36.77813789855212,175.00939945663228</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr"/>
+      <c r="D624" t="inlineStr"/>
+      <c r="E624" t="inlineStr"/>
+      <c r="F624" t="inlineStr"/>
+      <c r="G624" t="inlineStr"/>
+      <c r="H624" t="inlineStr"/>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>-36.77814027731355,175.0091833890707</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>-36.77887106183212,175.00929562692752</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>-36.77956009916802,175.00956381238257</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>-36.780196347143296,175.01000887682363</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>-36.78078844409008,175.01051903996597</t>
+        </is>
+      </c>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>-36.78134562735981,175.01109513496638</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>-36.78185975302518,175.01172451483131</t>
+        </is>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>-36.782334949543085,175.01239657540967</t>
+        </is>
+      </c>
+      <c r="J625" t="inlineStr">
+        <is>
+          <t>-36.782771981914095,175.01313027666396</t>
+        </is>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>-36.783149134976405,175.0139020726677</t>
+        </is>
+      </c>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>-36.778137448405374,175.00944034033006</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>-36.77885615991829,175.0094115548323</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>-36.77951754208954,175.00969386515334</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>-36.7801584145505,175.0100848222937</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>-36.780717798266906,175.01062360966466</t>
+        </is>
+      </c>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>-36.78126359421283,175.01120489570806</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>-36.781812648383195,175.011786676571</t>
+        </is>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>-36.782272606819596,175.0124520892632</t>
+        </is>
+      </c>
+      <c r="J626" t="inlineStr">
+        <is>
+          <t>-36.7827406861819,175.0131483656183</t>
+        </is>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>-36.78308989358184,175.01393631391707</t>
+        </is>
+      </c>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>-36.778141383322456,175.0090829159636</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>-36.77887815338718,175.00924045858193</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>-36.779591933885115,175.00946652635577</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>-36.78025505225481,175.0098913420171</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>-36.780855960320544,175.0104191023784</t>
+        </is>
+      </c>
+      <c r="G627" t="inlineStr">
+        <is>
+          <t>-36.78140288051657,175.01101852975506</t>
+        </is>
+      </c>
+      <c r="H627" t="inlineStr">
+        <is>
+          <t>-36.78190946654874,175.01165891014907</t>
+        </is>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>-36.782390186201816,175.01234738914795</t>
+        </is>
+      </c>
+      <c r="J627" t="inlineStr">
+        <is>
+          <t>-36.78282531762101,175.0130994485532</t>
+        </is>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>-36.78318138903354,175.01388342994971</t>
+        </is>
+      </c>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>-36.77813776659275,175.0094114417164</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>-36.77885057554985,175.00945499761505</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>-36.77951295814066,175.00970787348808</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>-36.78013745178191,175.010126792126</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>-36.78072388343148,175.01061460243818</t>
+        </is>
+      </c>
+      <c r="G628" t="inlineStr">
+        <is>
+          <t>-36.78124797092697,175.01122579969797</t>
+        </is>
+      </c>
+      <c r="H628" t="inlineStr">
+        <is>
+          <t>-36.78180955887785,175.01179075363913</t>
+        </is>
+      </c>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>-36.78226337628507,175.01246030869814</t>
+        </is>
+      </c>
+      <c r="J628" t="inlineStr">
+        <is>
+          <t>-36.78272085242679,175.01315982953403</t>
+        </is>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>-36.783051756233014,175.01395835709687</t>
+        </is>
+      </c>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>-36.77814249910949,175.00898154676833</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr"/>
+      <c r="D629" t="inlineStr"/>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>-36.780241362327814,175.00991875096</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>-36.780802063250256,175.010498880896</t>
+        </is>
+      </c>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>-36.78136975009895,175.01106285855752</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>-36.78187808407567,175.01170032419054</t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>-36.78238044286681,175.0123560652443</t>
+        </is>
+      </c>
+      <c r="J629" t="inlineStr">
+        <is>
+          <t>-36.78279152596017,175.01311898018415</t>
+        </is>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>-36.78316941447372,175.01389035120008</t>
+        </is>
+      </c>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>-36.77813989136182,175.00921844824694</t>
+        </is>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>-36.778882076611744,175.00920993799213</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>-36.77957802742778,175.00950902414928</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>-36.78022225346129,175.00995700925947</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>-36.78080953929852,175.0104878148503</t>
+        </is>
+      </c>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>-36.78133020562614,175.0111157693472</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>-36.78183800291882,175.0117532174193</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>-36.78232820979035,175.01240257691163</t>
+        </is>
+      </c>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>-36.782773014457796,175.0131296798527</t>
+        </is>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>-36.7831446110884,175.01390468745583</t>
+        </is>
+      </c>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:05:37+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>-36.77813897761383,175.00930144776302</t>
+        </is>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>-36.77886341052511,175.00935514959755</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>-36.77955233854796,175.00958752857719</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>-36.780189502167595,175.010022581275</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>-36.78077407152604,175.01054031421077</t>
+        </is>
+      </c>
+      <c r="G631" t="inlineStr">
+        <is>
+          <t>-36.78131453854328,175.01113673199376</t>
+        </is>
+      </c>
+      <c r="H631" t="inlineStr"/>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>-36.78309585114944,175.01393287047338</t>
+        </is>
+      </c>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>-36.77814001220404,175.00920747125255</t>
+        </is>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>-36.77885992030943,175.00938230134332</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>-36.77954153705504,175.00962053754566</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>-36.78018075580753,175.0100400925148</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>-36.780773202217624,175.0105416009592</t>
+        </is>
+      </c>
+      <c r="G632" t="inlineStr">
+        <is>
+          <t>-36.78134257806274,175.0110992149469</t>
+        </is>
+      </c>
+      <c r="H632" t="inlineStr">
+        <is>
+          <t>-36.78185890856094,175.01172562923136</t>
+        </is>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>-36.782326378335746,175.01240420775437</t>
+        </is>
+      </c>
+      <c r="J632" t="inlineStr">
+        <is>
+          <t>-36.782753552122905,175.0131409290976</t>
+        </is>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>-36.783125148712514,175.01391593662296</t>
+        </is>
+      </c>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:11:48+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr"/>
+      <c r="C633" t="inlineStr"/>
+      <c r="D633" t="inlineStr"/>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>-36.78027164177627,175.00985812769454</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr"/>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>-36.781296654581446,175.01116066082088</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr"/>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:57+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>-36.778139161354574,175.00928475825208</t>
+        </is>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>-36.77886474843952,175.00934474142764</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>-36.779534485708886,175.00964208618245</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>-36.780180280461806,175.0100410442125</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>-36.78076989884549,175.0105464906029</t>
+        </is>
+      </c>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>-36.78130975429915,175.01114313333713</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>-36.78181030035915,175.0117897751428</t>
+        </is>
+      </c>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>-36.78226711245387,175.01245698178423</t>
+        </is>
+      </c>
+      <c r="J634" t="inlineStr">
+        <is>
+          <t>-36.78265211025814,175.01319956247707</t>
+        </is>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>-36.78303130587675,175.01397017728172</t>
+        </is>
+      </c>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0171/nzd0171.xlsx
+++ b/data/nzd0171/nzd0171.xlsx
@@ -31250,7 +31250,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31341,35 +31341,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -31428,27 +31433,28 @@
       <c r="P2" t="n">
         <v>356.5130476191223</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.00536787040522 -36.77818221896405, 175.01568087835767 -36.77806857258912)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.0053678704052</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.77818221896405</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.0156808783577</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.77806857258912</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.0105243743814</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.77812539577658</v>
       </c>
     </row>
@@ -31505,27 +31511,28 @@
       <c r="P3" t="n">
         <v>359.711632181726</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.0054169810171 -36.77936957295913, 175.01560141580842 -36.77806031470136)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.0054169810171</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.77936957295913</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.0156014158084</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.77806031470136</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.0105091984128</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.77871494383024</v>
       </c>
     </row>
@@ -31582,27 +31589,28 @@
       <c r="P4" t="n">
         <v>359.0719858354053</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.0059165783527 -36.78075350483464, 175.01546837438747 -36.7776277648029)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.0059165783527</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.78075350483464</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.0154683743875</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.7776277648029</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.0106924763701</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.77919063481878</v>
       </c>
     </row>
@@ -31659,27 +31667,28 @@
       <c r="P5" t="n">
         <v>360.956649606554</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.00661732939344 -36.78189024196106, 175.0153760437372 -36.777515392336994)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.0066173293934</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.78189024196106</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.0153760437372</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.77751539233699</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.0109966865653</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.77970281714903</v>
       </c>
     </row>
@@ -31736,27 +31745,28 @@
       <c r="P6" t="n">
         <v>359.0489032066955</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.00748308885855 -36.782839395255266, 175.0153762946955 -36.77750672117123)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.0074830888585</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.78283939525527</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.0153762946955</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.77750672117123</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.011429691777</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.78017305821325</v>
       </c>
     </row>
@@ -31813,27 +31823,28 @@
       <c r="P7" t="n">
         <v>357.2406313714622</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.0082196645776 -36.783494604241504, 175.01577047898564 -36.77785112187208)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.0082196645776</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.7834946042415</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.0157704789856</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.77785112187208</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.0119950717816</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.78067286305679</v>
       </c>
     </row>
@@ -31890,27 +31901,28 @@
       <c r="P8" t="n">
         <v>356.8624565918802</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.0088415160924 -36.78404432167193, 175.01634374107144 -36.77835917592822)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.0088415160924</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.78404432167193</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.0163437410714</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.77835917592822</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.0125926285819</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.78120174880007</v>
       </c>
     </row>
@@ -31967,27 +31979,28 @@
       <c r="P9" t="n">
         <v>362.7404316582344</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.0100388180766 -36.784982625228146, 175.0160389061506 -36.7782443064771)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.0100388180766</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.78498262522815</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.0160389061506</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.7782443064771</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.0130388621136</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.78161346585262</v>
       </c>
     </row>
@@ -32044,27 +32057,28 @@
       <c r="P10" t="n">
         <v>345.6026610633399</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.0114961622814 -36.78559905423668, 175.01583918136063 -36.77808499899458)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.0114961622814</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.78559905423668</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.0158391813606</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.77808499899458</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.013667671821</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.78184202661563</v>
       </c>
     </row>
@@ -32121,27 +32135,28 @@
       <c r="P11" t="n">
         <v>339.3857137329791</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (175.0123057082488 -36.785910925577184, 175.01664868500148 -36.77839686339278)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>175.0123057082488</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.78591092557718</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>175.0166486850015</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.77839686339278</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>175.0144771966251</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.78215389448498</v>
       </c>
     </row>

--- a/data/nzd0171/nzd0171.xlsx
+++ b/data/nzd0171/nzd0171.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L634"/>
+  <dimension ref="A1:L642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24153,6 +24153,342 @@
         <v>352.4109090909091</v>
       </c>
       <c r="L634" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>346.61</v>
+      </c>
+      <c r="C635" t="n">
+        <v>355.6063636363637</v>
+      </c>
+      <c r="D635" t="n">
+        <v>356.5033333333333</v>
+      </c>
+      <c r="E635" t="n">
+        <v>357.85</v>
+      </c>
+      <c r="F635" t="n">
+        <v>356.11</v>
+      </c>
+      <c r="G635" t="n">
+        <v>353.5342857142857</v>
+      </c>
+      <c r="H635" t="n">
+        <v>358.8833333333333</v>
+      </c>
+      <c r="I635" t="n">
+        <v>368.6</v>
+      </c>
+      <c r="J635" t="n">
+        <v>355.4863636363636</v>
+      </c>
+      <c r="K635" t="n">
+        <v>348.9963636363636</v>
+      </c>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>341.62</v>
+      </c>
+      <c r="C636" t="n">
+        <v>355.5727272727273</v>
+      </c>
+      <c r="D636" t="n">
+        <v>355.0844444444444</v>
+      </c>
+      <c r="E636" t="n">
+        <v>356.74</v>
+      </c>
+      <c r="F636" t="n">
+        <v>357.79</v>
+      </c>
+      <c r="G636" t="n">
+        <v>353.8</v>
+      </c>
+      <c r="H636" t="n">
+        <v>357.9044444444444</v>
+      </c>
+      <c r="I636" t="n">
+        <v>368.03</v>
+      </c>
+      <c r="J636" t="n">
+        <v>355.3227272727273</v>
+      </c>
+      <c r="K636" t="n">
+        <v>352.3627272727272</v>
+      </c>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>361.68</v>
+      </c>
+      <c r="C637" t="n">
+        <v>361.6436363636364</v>
+      </c>
+      <c r="D637" t="n">
+        <v>365.0455555555556</v>
+      </c>
+      <c r="E637" t="n">
+        <v>371.77</v>
+      </c>
+      <c r="F637" t="n">
+        <v>371.78</v>
+      </c>
+      <c r="G637" t="n">
+        <v>371.2214285714285</v>
+      </c>
+      <c r="H637" t="n">
+        <v>369.3955555555555</v>
+      </c>
+      <c r="I637" t="n">
+        <v>370.82</v>
+      </c>
+      <c r="J637" t="n">
+        <v>356.2736363636364</v>
+      </c>
+      <c r="K637" t="n">
+        <v>349.5136363636364</v>
+      </c>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>341.15</v>
+      </c>
+      <c r="C638" t="n">
+        <v>349.7036363636363</v>
+      </c>
+      <c r="D638" t="n">
+        <v>348.9288888888889</v>
+      </c>
+      <c r="E638" t="n">
+        <v>349.92</v>
+      </c>
+      <c r="F638" t="n">
+        <v>348.23</v>
+      </c>
+      <c r="G638" t="n">
+        <v>345.1085714285715</v>
+      </c>
+      <c r="H638" t="n">
+        <v>352.9688888888889</v>
+      </c>
+      <c r="I638" t="n">
+        <v>368.26</v>
+      </c>
+      <c r="J638" t="n">
+        <v>355.6336363636364</v>
+      </c>
+      <c r="K638" t="n">
+        <v>348.9736363636364</v>
+      </c>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>354.39</v>
+      </c>
+      <c r="C639" t="n">
+        <v>354.920909090909</v>
+      </c>
+      <c r="D639" t="n">
+        <v>356.1522222222222</v>
+      </c>
+      <c r="E639" t="n">
+        <v>357.38</v>
+      </c>
+      <c r="F639" t="n">
+        <v>358.02</v>
+      </c>
+      <c r="G639" t="n">
+        <v>357.49</v>
+      </c>
+      <c r="H639" t="n">
+        <v>360.3622222222222</v>
+      </c>
+      <c r="I639" t="n">
+        <v>366.74</v>
+      </c>
+      <c r="J639" t="n">
+        <v>348.7709090909091</v>
+      </c>
+      <c r="K639" t="n">
+        <v>345.3209090909091</v>
+      </c>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>353.07</v>
+      </c>
+      <c r="C640" t="n">
+        <v>357.1981818181818</v>
+      </c>
+      <c r="D640" t="n">
+        <v>358.8888888888889</v>
+      </c>
+      <c r="E640" t="n">
+        <v>358.73</v>
+      </c>
+      <c r="F640" t="n">
+        <v>357.58</v>
+      </c>
+      <c r="G640" t="n">
+        <v>354.1185714285714</v>
+      </c>
+      <c r="H640" t="n">
+        <v>357.6388888888889</v>
+      </c>
+      <c r="I640" t="n">
+        <v>364.08</v>
+      </c>
+      <c r="J640" t="n">
+        <v>350.4781818181818</v>
+      </c>
+      <c r="K640" t="n">
+        <v>340.8581818181818</v>
+      </c>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>350.66</v>
+      </c>
+      <c r="C641" t="n">
+        <v>356.7263636363636</v>
+      </c>
+      <c r="D641" t="n">
+        <v>355.7</v>
+      </c>
+      <c r="E641" t="n">
+        <v>355.75</v>
+      </c>
+      <c r="F641" t="n">
+        <v>355.04</v>
+      </c>
+      <c r="G641" t="n">
+        <v>354.8314285714285</v>
+      </c>
+      <c r="H641" t="n">
+        <v>354.37</v>
+      </c>
+      <c r="I641" t="n">
+        <v>362.39</v>
+      </c>
+      <c r="J641" t="n">
+        <v>345.4463636363636</v>
+      </c>
+      <c r="K641" t="n">
+        <v>340.8363636363636</v>
+      </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>343.81</v>
+      </c>
+      <c r="C642" t="n">
+        <v>345.6981818181818</v>
+      </c>
+      <c r="D642" t="n">
+        <v>346.1833333333333</v>
+      </c>
+      <c r="E642" t="n">
+        <v>346.74</v>
+      </c>
+      <c r="F642" t="n">
+        <v>347.33</v>
+      </c>
+      <c r="G642" t="n">
+        <v>349.5114285714285</v>
+      </c>
+      <c r="H642" t="n">
+        <v>353.9433333333333</v>
+      </c>
+      <c r="I642" t="n">
+        <v>363.63</v>
+      </c>
+      <c r="J642" t="n">
+        <v>345.9181818181818</v>
+      </c>
+      <c r="K642" t="n">
+        <v>343.8681818181818</v>
+      </c>
+      <c r="L642" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -24169,7 +24505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B706"/>
+  <dimension ref="A1:B714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31237,6 +31573,86 @@
       </c>
       <c r="B706" t="n">
         <v>-0.38</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>-0.86</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>-0.12</v>
       </c>
     </row>
   </sheetData>
@@ -31410,28 +31826,28 @@
         <v>0.0436</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1535372276956203</v>
+        <v>-0.1636697572995778</v>
       </c>
       <c r="J2" t="n">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="K2" t="n">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01132300741779757</v>
+        <v>0.01309368990730175</v>
       </c>
       <c r="M2" t="n">
-        <v>7.779802927532344</v>
+        <v>7.759122786666908</v>
       </c>
       <c r="N2" t="n">
-        <v>98.05149647801154</v>
+        <v>97.41958605767621</v>
       </c>
       <c r="O2" t="n">
-        <v>9.902095559931318</v>
+        <v>9.870136070879481</v>
       </c>
       <c r="P2" t="n">
-        <v>356.5130476191223</v>
+        <v>356.6246962036159</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31488,28 +31904,28 @@
         <v>0.0567</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1422538659451149</v>
+        <v>-0.1467335453858026</v>
       </c>
       <c r="J3" t="n">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="K3" t="n">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01028707671474238</v>
+        <v>0.01122360074038431</v>
       </c>
       <c r="M3" t="n">
-        <v>7.38790702737032</v>
+        <v>7.322560572329777</v>
       </c>
       <c r="N3" t="n">
-        <v>94.39262095462411</v>
+        <v>93.24846551417963</v>
       </c>
       <c r="O3" t="n">
-        <v>9.715586495658618</v>
+        <v>9.656524504923064</v>
       </c>
       <c r="P3" t="n">
-        <v>359.711632181726</v>
+        <v>359.7604790124169</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31566,28 +31982,28 @@
         <v>0.0458</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1144513027326892</v>
+        <v>-0.1170729880400774</v>
       </c>
       <c r="J4" t="n">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="K4" t="n">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006979578784044427</v>
+        <v>0.007482465696164842</v>
       </c>
       <c r="M4" t="n">
-        <v>7.063171482910223</v>
+        <v>7.012425244256248</v>
       </c>
       <c r="N4" t="n">
-        <v>91.58095349981487</v>
+        <v>90.58394069996741</v>
       </c>
       <c r="O4" t="n">
-        <v>9.569793806546453</v>
+        <v>9.517559597920435</v>
       </c>
       <c r="P4" t="n">
-        <v>359.0719858354053</v>
+        <v>359.1004387361775</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31644,28 +32060,28 @@
         <v>0.0411</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1106323437962846</v>
+        <v>-0.1144872764968775</v>
       </c>
       <c r="J5" t="n">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="K5" t="n">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007313806368170694</v>
+        <v>0.007975921763247684</v>
       </c>
       <c r="M5" t="n">
-        <v>7.023956258919754</v>
+        <v>6.98919752644183</v>
       </c>
       <c r="N5" t="n">
-        <v>82.51016741445339</v>
+        <v>81.96436914049428</v>
       </c>
       <c r="O5" t="n">
-        <v>9.083510742793965</v>
+        <v>9.053417539277325</v>
       </c>
       <c r="P5" t="n">
-        <v>360.956649606554</v>
+        <v>360.9986640224147</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31722,28 +32138,28 @@
         <v>0.0404</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08998423978473236</v>
+        <v>-0.09084086485355834</v>
       </c>
       <c r="J6" t="n">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="K6" t="n">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004525346769118088</v>
+        <v>0.004704744093407709</v>
       </c>
       <c r="M6" t="n">
-        <v>7.16928216825553</v>
+        <v>7.131544002477401</v>
       </c>
       <c r="N6" t="n">
-        <v>87.02388534532002</v>
+        <v>86.4165331744868</v>
       </c>
       <c r="O6" t="n">
-        <v>9.328659354125866</v>
+        <v>9.296049331543308</v>
       </c>
       <c r="P6" t="n">
-        <v>359.0489032066955</v>
+        <v>359.0584540821508</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31800,28 +32216,28 @@
         <v>0.0355</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04441173418032366</v>
+        <v>-0.04787671361550622</v>
       </c>
       <c r="J7" t="n">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="K7" t="n">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001179802882912417</v>
+        <v>0.00139618154690424</v>
       </c>
       <c r="M7" t="n">
-        <v>7.084978031072072</v>
+        <v>7.054770265946941</v>
       </c>
       <c r="N7" t="n">
-        <v>82.03961928816526</v>
+        <v>81.5516189029438</v>
       </c>
       <c r="O7" t="n">
-        <v>9.057572483185837</v>
+        <v>9.030593496716802</v>
       </c>
       <c r="P7" t="n">
-        <v>357.2406313714622</v>
+        <v>357.2784623326242</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31878,28 +32294,28 @@
         <v>0.0453</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03318619906242045</v>
+        <v>0.03458805049021924</v>
       </c>
       <c r="J8" t="n">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="K8" t="n">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007622400499509574</v>
+        <v>0.0008477993463834599</v>
       </c>
       <c r="M8" t="n">
-        <v>6.192794747360248</v>
+        <v>6.148329266228139</v>
       </c>
       <c r="N8" t="n">
-        <v>70.97751868184439</v>
+        <v>70.22447904114961</v>
       </c>
       <c r="O8" t="n">
-        <v>8.424815646757168</v>
+        <v>8.380004716057719</v>
       </c>
       <c r="P8" t="n">
-        <v>356.8624565918802</v>
+        <v>356.8474391065462</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31956,28 +32372,28 @@
         <v>0.0506</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1123766582731271</v>
+        <v>0.1153648604210013</v>
       </c>
       <c r="J9" t="n">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="K9" t="n">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01007554050234971</v>
+        <v>0.01090789632519495</v>
       </c>
       <c r="M9" t="n">
-        <v>5.91820877597833</v>
+        <v>5.862967721131963</v>
       </c>
       <c r="N9" t="n">
-        <v>60.04876891235631</v>
+        <v>59.18523705825738</v>
       </c>
       <c r="O9" t="n">
-        <v>7.749114072741238</v>
+        <v>7.693194203856899</v>
       </c>
       <c r="P9" t="n">
-        <v>362.7404316582344</v>
+        <v>362.7078530449411</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32034,28 +32450,28 @@
         <v>0.0567</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1596186208591938</v>
+        <v>0.1658974105680708</v>
       </c>
       <c r="J10" t="n">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="K10" t="n">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01503300023729104</v>
+        <v>0.01663721212587155</v>
       </c>
       <c r="M10" t="n">
-        <v>6.809329351749252</v>
+        <v>6.763312945510096</v>
       </c>
       <c r="N10" t="n">
-        <v>79.57362039671501</v>
+        <v>78.62045868220214</v>
       </c>
       <c r="O10" t="n">
-        <v>8.920404721575979</v>
+        <v>8.866817844198794</v>
       </c>
       <c r="P10" t="n">
-        <v>345.6026610633399</v>
+        <v>345.5337259412498</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32112,28 +32528,28 @@
         <v>0.0611</v>
       </c>
       <c r="I11" t="n">
-        <v>0.206529621210622</v>
+        <v>0.2119847505785915</v>
       </c>
       <c r="J11" t="n">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="K11" t="n">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02264715048824006</v>
+        <v>0.02447985960808297</v>
       </c>
       <c r="M11" t="n">
-        <v>7.109497455762973</v>
+        <v>7.049800142667845</v>
       </c>
       <c r="N11" t="n">
-        <v>87.12612658299864</v>
+        <v>85.96476349466562</v>
       </c>
       <c r="O11" t="n">
-        <v>9.334137698952091</v>
+        <v>9.271718475809413</v>
       </c>
       <c r="P11" t="n">
-        <v>339.3857137329791</v>
+        <v>339.3255550337466</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32171,7 +32587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L634"/>
+  <dimension ref="A1:L642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65635,6 +66051,502 @@
         </is>
       </c>
     </row>
+    <row r="635">
+      <c r="A635" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>-36.77813954116026,175.00925025912815</t>
+        </is>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>-36.77886398705646,175.00935066453115</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>-36.77954304994368,175.00961591421535</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>-36.78018926449479,175.01002305712396</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>-36.78077563628118,175.0105379980635</t>
+        </is>
+      </c>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>-36.781326183707556,175.01112115069856</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>-36.78182681204717,175.0117679854744</t>
+        </is>
+      </c>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>-36.782282350161026,175.01244341319088</t>
+        </is>
+      </c>
+      <c r="J635" t="inlineStr">
+        <is>
+          <t>-36.78269431084958,175.01317517056287</t>
+        </is>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>-36.78305920690741,175.0139540506495</t>
+        </is>
+      </c>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>-36.77814015647355,175.0091943660653</t>
+        </is>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>-36.778864034885295,175.00935029245164</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>-36.7795478677949,175.00960119103996</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>-36.78019454083041,175.0100124932763</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>-36.78076590002634,175.01055240964473</t>
+        </is>
+      </c>
+      <c r="G636" t="inlineStr">
+        <is>
+          <t>-36.78132455391041,175.01112333137675</t>
+        </is>
+      </c>
+      <c r="H636" t="inlineStr">
+        <is>
+          <t>-36.78183286061053,175.01176000347704</t>
+        </is>
+      </c>
+      <c r="I636" t="inlineStr">
+        <is>
+          <t>-36.782286525878604,175.0124396948735</t>
+        </is>
+      </c>
+      <c r="J636" t="inlineStr">
+        <is>
+          <t>-36.78269564795678,175.01317439771532</t>
+        </is>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>-36.78303169958141,175.01396994972285</t>
+        </is>
+      </c>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>-36.77813768273009,175.00941905840534</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>-36.778855402409974,175.00941744776574</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>-36.77951404470647,175.0097045529941</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>-36.78012309631768,175.01015553335827</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>-36.780684822459136,175.01067242022896</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>-36.78121769696725,175.0112663062834</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>-36.78176185689857,175.01185370352965</t>
+        </is>
+      </c>
+      <c r="I637" t="inlineStr">
+        <is>
+          <t>-36.78226608683892,175.01245789505475</t>
+        </is>
+      </c>
+      <c r="J637" t="inlineStr">
+        <is>
+          <t>-36.78268787787817,175.013178888818</t>
+        </is>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>-36.78305498015396,175.01395649368902</t>
+        </is>
+      </c>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>-36.77814021442754,175.0091891015883</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>-36.77887238035138,175.00928536959836</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>-36.77956876902397,175.00953731757107</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>-36.78022695937727,175.00994758744125</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>-36.78082130393062,175.01047040083597</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>-36.7813778640297,175.01105200204927</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>-36.78186335744557,175.01171975824556</t>
+        </is>
+      </c>
+      <c r="I638" t="inlineStr">
+        <is>
+          <t>-36.78228484093995,175.01244119524728</t>
+        </is>
+      </c>
+      <c r="J638" t="inlineStr">
+        <is>
+          <t>-36.782693107453085,175.01317586612566</t>
+        </is>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>-36.78305939261714,175.01395394331033</t>
+        </is>
+      </c>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>-36.778138581761716,175.00933740301753</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>-36.77886496173014,175.00934308215415</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>-36.7795442421451,175.00961227089257</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>-36.78019149861898,175.0100185841436</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>-36.78076456708656,175.01055438265854</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>-36.78130192075588,175.01115361465588</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>-36.7818176739783,175.01178004453945</t>
+        </is>
+      </c>
+      <c r="I639" t="inlineStr">
+        <is>
+          <t>-36.78229597618642,175.01243127973277</t>
+        </is>
+      </c>
+      <c r="J639" t="inlineStr">
+        <is>
+          <t>-36.782749184239975,175.01314345373655</t>
+        </is>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>-36.78308923988364,175.01393669175124</t>
+        </is>
+      </c>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>-36.778138744543334,175.00932261767935</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>-36.77886172358829,175.0093682729417</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>-36.77953494976228,175.009640668054</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>-36.7801850814533,175.01003143206518</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>-36.78076711705829,175.0105506081973</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>-36.781322599906254,175.01112594584558</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>-36.78183450148064,175.0117578380996</t>
+        </is>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>-36.78231546286591,175.01241392757558</t>
+        </is>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>-36.78273523375645,175.01315151712228</t>
+        </is>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>-36.783125705841606,175.0139156146049</t>
+        </is>
+      </c>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>-36.77813904173839,175.00929562323574</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>-36.77886239448518,175.00936305377272</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>-36.779545777670144,175.0096075783849</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>-36.7801992467506,175.010003071465</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>-36.780781837347384,175.01052881925693</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>-36.78131822749319,175.01113179615885</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>-36.78185469997075,175.01173118311078</t>
+        </is>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>-36.782327843499424,175.0124029030802</t>
+        </is>
+      </c>
+      <c r="J641" t="inlineStr">
+        <is>
+          <t>-36.78277634979677,175.01312775202356</t>
+        </is>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>-36.78312588412292,175.01391551155913</t>
+        </is>
+      </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>-36.77813988642946,175.00921889628754</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>-36.77887807582748,175.00924106195433</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>-36.77957809156502,175.00950882814755</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>-36.78024207534501,175.00991732341112</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>-36.780826519776596,175.0104626803353</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>-36.781350858481204,175.01108813568877</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>-36.78185733634702,175.01172770400856</t>
+        </is>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>-36.7823187594844,175.0124109920594</t>
+        </is>
+      </c>
+      <c r="J642" t="inlineStr">
+        <is>
+          <t>-36.78277249447175,175.01312998040513</t>
+        </is>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>-36.783101110448456,175.01392983062487</t>
+        </is>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0171/nzd0171.xlsx
+++ b/data/nzd0171/nzd0171.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L642"/>
+  <dimension ref="A1:L646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24491,6 +24491,174 @@
       <c r="L642" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>371.03</v>
+      </c>
+      <c r="C643" t="n">
+        <v>382.2172727272728</v>
+      </c>
+      <c r="D643" t="n">
+        <v>372.6577777777778</v>
+      </c>
+      <c r="E643" t="n">
+        <v>371.86</v>
+      </c>
+      <c r="F643" t="n">
+        <v>370.62</v>
+      </c>
+      <c r="G643" t="n">
+        <v>353.0128571428572</v>
+      </c>
+      <c r="H643" t="n">
+        <v>348.4477777777778</v>
+      </c>
+      <c r="I643" t="n">
+        <v>355.59</v>
+      </c>
+      <c r="J643" t="n">
+        <v>340.9472727272728</v>
+      </c>
+      <c r="K643" t="n">
+        <v>331.1172727272727</v>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>342.49</v>
+      </c>
+      <c r="C644" t="n">
+        <v>347.5236363636364</v>
+      </c>
+      <c r="D644" t="n">
+        <v>347.1677777777778</v>
+      </c>
+      <c r="E644" t="n">
+        <v>355.11</v>
+      </c>
+      <c r="F644" t="n">
+        <v>356.29</v>
+      </c>
+      <c r="G644" t="n">
+        <v>352.7</v>
+      </c>
+      <c r="H644" t="n">
+        <v>354.8277777777778</v>
+      </c>
+      <c r="I644" t="n">
+        <v>363.69</v>
+      </c>
+      <c r="J644" t="n">
+        <v>350.3236363636364</v>
+      </c>
+      <c r="K644" t="n">
+        <v>340.9936363636364</v>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>344.26</v>
+      </c>
+      <c r="C645" t="n">
+        <v>346.5354545454546</v>
+      </c>
+      <c r="D645" t="n">
+        <v>350.7888888888889</v>
+      </c>
+      <c r="E645" t="n">
+        <v>359.48</v>
+      </c>
+      <c r="F645" t="n">
+        <v>356.85</v>
+      </c>
+      <c r="G645" t="n">
+        <v>361.8514285714285</v>
+      </c>
+      <c r="H645" t="n">
+        <v>362.7888888888889</v>
+      </c>
+      <c r="I645" t="n">
+        <v>366.05</v>
+      </c>
+      <c r="J645" t="n">
+        <v>353.9254545454546</v>
+      </c>
+      <c r="K645" t="n">
+        <v>346.7454545454545</v>
+      </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>367.95</v>
+      </c>
+      <c r="C646" t="n">
+        <v>377.7354545454546</v>
+      </c>
+      <c r="D646" t="n">
+        <v>366.8844444444445</v>
+      </c>
+      <c r="E646" t="n">
+        <v>369.73</v>
+      </c>
+      <c r="F646" t="n">
+        <v>365.22</v>
+      </c>
+      <c r="G646" t="n">
+        <v>357.6628571428571</v>
+      </c>
+      <c r="H646" t="n">
+        <v>356.7244444444444</v>
+      </c>
+      <c r="I646" t="n">
+        <v>362.25</v>
+      </c>
+      <c r="J646" t="n">
+        <v>346.5754545454545</v>
+      </c>
+      <c r="K646" t="n">
+        <v>336.0454545454546</v>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -24505,7 +24673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B714"/>
+  <dimension ref="A1:B719"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31653,6 +31821,56 @@
       </c>
       <c r="B714" t="n">
         <v>-0.12</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>-0.73</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>
@@ -31826,28 +32044,28 @@
         <v>0.0436</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1636697572995778</v>
+        <v>-0.1578668546780778</v>
       </c>
       <c r="J2" t="n">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="K2" t="n">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01309368990730175</v>
+        <v>0.01218458788603982</v>
       </c>
       <c r="M2" t="n">
-        <v>7.759122786666908</v>
+        <v>7.79802465512911</v>
       </c>
       <c r="N2" t="n">
-        <v>97.41958605767621</v>
+        <v>98.09768160205537</v>
       </c>
       <c r="O2" t="n">
-        <v>9.870136070879481</v>
+        <v>9.904427373758434</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6246962036159</v>
+        <v>356.5603420023162</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31904,28 +32122,28 @@
         <v>0.0567</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1467335453858026</v>
+        <v>-0.1353169681625963</v>
       </c>
       <c r="J3" t="n">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="K3" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01122360074038431</v>
+        <v>0.009437858086167594</v>
       </c>
       <c r="M3" t="n">
-        <v>7.322560572329777</v>
+        <v>7.394795209392124</v>
       </c>
       <c r="N3" t="n">
-        <v>93.24846551417963</v>
+        <v>95.11639459792796</v>
       </c>
       <c r="O3" t="n">
-        <v>9.656524504923064</v>
+        <v>9.752763433915947</v>
       </c>
       <c r="P3" t="n">
-        <v>359.7604790124169</v>
+        <v>359.6356727495213</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31982,28 +32200,28 @@
         <v>0.0458</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1170729880400774</v>
+        <v>-0.1120833142932513</v>
       </c>
       <c r="J4" t="n">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="K4" t="n">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007482465696164842</v>
+        <v>0.006887978664440242</v>
       </c>
       <c r="M4" t="n">
-        <v>7.012425244256248</v>
+        <v>7.037050864680494</v>
       </c>
       <c r="N4" t="n">
-        <v>90.58394069996741</v>
+        <v>90.85484701164465</v>
       </c>
       <c r="O4" t="n">
-        <v>9.517559597920435</v>
+        <v>9.531780894022095</v>
       </c>
       <c r="P4" t="n">
-        <v>359.1004387361775</v>
+        <v>359.0463232918685</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32060,28 +32278,28 @@
         <v>0.0411</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1144872764968775</v>
+        <v>-0.1056227556439032</v>
       </c>
       <c r="J5" t="n">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="K5" t="n">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007975921763247684</v>
+        <v>0.006835798388425407</v>
       </c>
       <c r="M5" t="n">
-        <v>6.98919752644183</v>
+        <v>6.990739294095484</v>
       </c>
       <c r="N5" t="n">
-        <v>81.96436914049428</v>
+        <v>81.97692033383765</v>
       </c>
       <c r="O5" t="n">
-        <v>9.053417539277325</v>
+        <v>9.054110687076763</v>
       </c>
       <c r="P5" t="n">
-        <v>360.9986640224147</v>
+        <v>360.9020205815093</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32138,28 +32356,28 @@
         <v>0.0404</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09084086485355834</v>
+        <v>-0.08254554938199134</v>
       </c>
       <c r="J6" t="n">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="K6" t="n">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004704744093407709</v>
+        <v>0.003920144162865125</v>
       </c>
       <c r="M6" t="n">
-        <v>7.131544002477401</v>
+        <v>7.117851662334972</v>
       </c>
       <c r="N6" t="n">
-        <v>86.4165331744868</v>
+        <v>86.25099883857477</v>
       </c>
       <c r="O6" t="n">
-        <v>9.296049331543308</v>
+        <v>9.28714158600884</v>
       </c>
       <c r="P6" t="n">
-        <v>359.0584540821508</v>
+        <v>358.9676927730998</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32216,28 +32434,28 @@
         <v>0.0355</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04787671361550622</v>
+        <v>-0.04749407419392462</v>
       </c>
       <c r="J7" t="n">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="K7" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00139618154690424</v>
+        <v>0.001391380800627173</v>
       </c>
       <c r="M7" t="n">
-        <v>7.054770265946941</v>
+        <v>7.026369152578831</v>
       </c>
       <c r="N7" t="n">
-        <v>81.5516189029438</v>
+        <v>81.01795855258524</v>
       </c>
       <c r="O7" t="n">
-        <v>9.030593496716802</v>
+        <v>9.000997642071974</v>
       </c>
       <c r="P7" t="n">
-        <v>357.2784623326242</v>
+        <v>357.2742484052122</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32294,28 +32512,28 @@
         <v>0.0453</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03458805049021924</v>
+        <v>0.03154205332123282</v>
       </c>
       <c r="J8" t="n">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="K8" t="n">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0008477993463834599</v>
+        <v>0.0007128704575679601</v>
       </c>
       <c r="M8" t="n">
-        <v>6.148329266228139</v>
+        <v>6.136546404637786</v>
       </c>
       <c r="N8" t="n">
-        <v>70.22447904114961</v>
+        <v>69.90572073637939</v>
       </c>
       <c r="O8" t="n">
-        <v>8.380004716057719</v>
+        <v>8.360964103282551</v>
       </c>
       <c r="P8" t="n">
-        <v>356.8474391065462</v>
+        <v>356.8806096951623</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32372,28 +32590,28 @@
         <v>0.0506</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1153648604210013</v>
+        <v>0.1094860821912507</v>
       </c>
       <c r="J9" t="n">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="K9" t="n">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01090789632519495</v>
+        <v>0.009939511594864059</v>
       </c>
       <c r="M9" t="n">
-        <v>5.862967721131963</v>
+        <v>5.848028691777847</v>
       </c>
       <c r="N9" t="n">
-        <v>59.18523705825738</v>
+        <v>58.93512615573925</v>
       </c>
       <c r="O9" t="n">
-        <v>7.693194203856899</v>
+        <v>7.676921658825187</v>
       </c>
       <c r="P9" t="n">
-        <v>362.7078530449411</v>
+        <v>362.7727227519156</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32450,28 +32668,28 @@
         <v>0.0567</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1658974105680708</v>
+        <v>0.1629898338031561</v>
       </c>
       <c r="J10" t="n">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="K10" t="n">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01663721212587155</v>
+        <v>0.01626209778362198</v>
       </c>
       <c r="M10" t="n">
-        <v>6.763312945510096</v>
+        <v>6.743390122220355</v>
       </c>
       <c r="N10" t="n">
-        <v>78.62045868220214</v>
+        <v>78.19053564004119</v>
       </c>
       <c r="O10" t="n">
-        <v>8.866817844198794</v>
+        <v>8.842541243332779</v>
       </c>
       <c r="P10" t="n">
-        <v>345.5337259412498</v>
+        <v>345.5659790114071</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32528,28 +32746,28 @@
         <v>0.0611</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2119847505785915</v>
+        <v>0.2022138827051106</v>
       </c>
       <c r="J11" t="n">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="K11" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02447985960808297</v>
+        <v>0.02251027332501454</v>
       </c>
       <c r="M11" t="n">
-        <v>7.049800142667845</v>
+        <v>7.055100338815958</v>
       </c>
       <c r="N11" t="n">
-        <v>85.96476349466562</v>
+        <v>85.82367019283954</v>
       </c>
       <c r="O11" t="n">
-        <v>9.271718475809413</v>
+        <v>9.264106551246027</v>
       </c>
       <c r="P11" t="n">
-        <v>339.3255550337466</v>
+        <v>339.4344957164756</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32587,7 +32805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L642"/>
+  <dimension ref="A1:L646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66547,6 +66765,254 @@
         </is>
       </c>
     </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>-36.77813652956911,175.00952378787414</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>-36.778826147631484,175.0096450295384</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>-36.779488197243396,175.0097835415247</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>-36.78012266850573,175.01015638988488</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>-36.780691545120966,175.01066246939678</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>-36.78132938196527,175.0111168714105</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>-36.78189129341405,175.01168289242574</t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>-36.78237765905671,175.01235854412855</t>
+        </is>
+      </c>
+      <c r="J643" t="inlineStr">
+        <is>
+          <t>-36.78281311280738,175.013106502956</t>
+        </is>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>-36.7832053010102,175.01386960891065</t>
+        </is>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:11:22+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>-36.77814004919637,175.00920411094813</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>-36.77887548016086,175.00926125481706</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>-36.779574748882105,175.00951904329577</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>-36.78020228896127,175.00999698059644</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>-36.78077459311109,175.0105395421617</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>-36.78133130091984,175.01111430383747</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>-36.781851871358604,175.0117349158973</t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>-36.782318319935264,175.01241138346157</t>
+        </is>
+      </c>
+      <c r="J644" t="inlineStr">
+        <is>
+          <t>-36.78273649657978,175.01315078720995</t>
+        </is>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>-36.7831245990118,175.01391625434744</t>
+        </is>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>-36.77813983094033,175.0092239367441</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>-36.77887688528559,175.00925032372075</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>-36.77956245338534,175.00955661796962</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>-36.78018151636068,175.01003856979844</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>-36.780771347692934,175.01054434602239</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>-36.78127516928667,175.01118940822607</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>-36.781802679578796,175.01179983190968</t>
+        </is>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>-36.782301031002,175.0124267786101</t>
+        </is>
+      </c>
+      <c r="J645" t="inlineStr">
+        <is>
+          <t>-36.78270706536647,175.01316779845484</t>
+        </is>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>-36.78307759959853,175.01394341977496</t>
+        </is>
+      </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>-36.778136909444086,175.00948928875584</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>-36.7788325206105,175.00959545250836</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>-36.77950780072467,175.0097236343038</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>-36.78013279338697,175.01013611875223</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>-36.78072284026046,175.01061614653426</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>-36.78130086051114,175.01115503326824</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>-36.78184015184061,175.01175038158988</t>
+        </is>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>-36.78232886911399,175.01240198980824</t>
+        </is>
+      </c>
+      <c r="J646" t="inlineStr">
+        <is>
+          <t>-36.78276712375882,175.01313308468198</t>
+        </is>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>-36.78316503172529,175.01389288441152</t>
+        </is>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0171/nzd0171.xlsx
+++ b/data/nzd0171/nzd0171.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L646"/>
+  <dimension ref="A1:L647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24659,6 +24659,48 @@
       <c r="L646" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>364.57</v>
+      </c>
+      <c r="C647" t="n">
+        <v>370.07</v>
+      </c>
+      <c r="D647" t="n">
+        <v>368.7644444444445</v>
+      </c>
+      <c r="E647" t="n">
+        <v>361.59</v>
+      </c>
+      <c r="F647" t="n">
+        <v>361.24</v>
+      </c>
+      <c r="G647" t="n">
+        <v>354.8471428571428</v>
+      </c>
+      <c r="H647" t="n">
+        <v>355.7244444444444</v>
+      </c>
+      <c r="I647" t="n">
+        <v>365.04</v>
+      </c>
+      <c r="J647" t="n">
+        <v>347.9</v>
+      </c>
+      <c r="K647" t="n">
+        <v>337.59</v>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -24673,7 +24715,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B719"/>
+  <dimension ref="A1:B720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31871,6 +31913,16 @@
       </c>
       <c r="B719" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>-0.88</v>
       </c>
     </row>
   </sheetData>
@@ -32044,28 +32096,28 @@
         <v>0.0436</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1578668546780778</v>
+        <v>-0.153485825074081</v>
       </c>
       <c r="J2" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K2" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01218458788603982</v>
+        <v>0.01153297662757569</v>
       </c>
       <c r="M2" t="n">
-        <v>7.79802465512911</v>
+        <v>7.805258607176873</v>
       </c>
       <c r="N2" t="n">
-        <v>98.09768160205537</v>
+        <v>98.18530822284552</v>
       </c>
       <c r="O2" t="n">
-        <v>9.904427373758434</v>
+        <v>9.90884999497144</v>
       </c>
       <c r="P2" t="n">
-        <v>356.5603420023162</v>
+        <v>356.5115860837506</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32122,28 +32174,28 @@
         <v>0.0567</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1353169681625963</v>
+        <v>-0.1300169169284389</v>
       </c>
       <c r="J3" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K3" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009437858086167594</v>
+        <v>0.008716348792068174</v>
       </c>
       <c r="M3" t="n">
-        <v>7.394795209392124</v>
+        <v>7.407596904551323</v>
       </c>
       <c r="N3" t="n">
-        <v>95.11639459792796</v>
+        <v>95.30886824078405</v>
       </c>
       <c r="O3" t="n">
-        <v>9.752763433915947</v>
+        <v>9.762626093463995</v>
       </c>
       <c r="P3" t="n">
-        <v>359.6356727495213</v>
+        <v>359.5775301626349</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32200,28 +32252,28 @@
         <v>0.0458</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1120833142932513</v>
+        <v>-0.1072759111337388</v>
       </c>
       <c r="J4" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K4" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006887978664440242</v>
+        <v>0.006314654524179675</v>
       </c>
       <c r="M4" t="n">
-        <v>7.037050864680494</v>
+        <v>7.045918649422165</v>
       </c>
       <c r="N4" t="n">
-        <v>90.85484701164465</v>
+        <v>90.9888721312051</v>
       </c>
       <c r="O4" t="n">
-        <v>9.531780894022095</v>
+        <v>9.538808737531385</v>
       </c>
       <c r="P4" t="n">
-        <v>359.0463232918685</v>
+        <v>358.9939850894771</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32278,28 +32330,28 @@
         <v>0.0411</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1056227556439032</v>
+        <v>-0.1043594927281331</v>
       </c>
       <c r="J5" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K5" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006835798388425407</v>
+        <v>0.006695624455433591</v>
       </c>
       <c r="M5" t="n">
-        <v>6.990739294095484</v>
+        <v>6.983252158519745</v>
       </c>
       <c r="N5" t="n">
-        <v>81.97692033383765</v>
+        <v>81.83544733662896</v>
       </c>
       <c r="O5" t="n">
-        <v>9.054110687076763</v>
+        <v>9.046294674430463</v>
       </c>
       <c r="P5" t="n">
-        <v>360.9020205815093</v>
+        <v>360.8881979221275</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32356,28 +32408,28 @@
         <v>0.0404</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08254554938199134</v>
+        <v>-0.08088989883012282</v>
       </c>
       <c r="J6" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K6" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003920144162865125</v>
+        <v>0.003776817054266024</v>
       </c>
       <c r="M6" t="n">
-        <v>7.117851662334972</v>
+        <v>7.111976754420181</v>
       </c>
       <c r="N6" t="n">
-        <v>86.25099883857477</v>
+        <v>86.11771201478412</v>
       </c>
       <c r="O6" t="n">
-        <v>9.28714158600884</v>
+        <v>9.279962931757007</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9676927730998</v>
+        <v>358.9495111167714</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32434,28 +32486,28 @@
         <v>0.0355</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04749407419392462</v>
+        <v>-0.04794002641249274</v>
       </c>
       <c r="J7" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K7" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001391380800627173</v>
+        <v>0.001422482065101649</v>
       </c>
       <c r="M7" t="n">
-        <v>7.026369152578831</v>
+        <v>7.01468498961607</v>
       </c>
       <c r="N7" t="n">
-        <v>81.01795855258524</v>
+        <v>80.86070201802211</v>
       </c>
       <c r="O7" t="n">
-        <v>9.000997642071974</v>
+        <v>8.992257893211367</v>
       </c>
       <c r="P7" t="n">
-        <v>357.2742484052122</v>
+        <v>357.279149929927</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32512,28 +32564,28 @@
         <v>0.0453</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03154205332123282</v>
+        <v>0.03080387575071177</v>
       </c>
       <c r="J8" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K8" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007128704575679601</v>
+        <v>0.0006822713289673654</v>
       </c>
       <c r="M8" t="n">
-        <v>6.136546404637786</v>
+        <v>6.12843828118833</v>
       </c>
       <c r="N8" t="n">
-        <v>69.90572073637939</v>
+        <v>69.7743943662342</v>
       </c>
       <c r="O8" t="n">
-        <v>8.360964103282551</v>
+        <v>8.353106869077768</v>
       </c>
       <c r="P8" t="n">
-        <v>356.8806096951623</v>
+        <v>356.8886853584615</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32590,28 +32642,28 @@
         <v>0.0506</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1094860821912507</v>
+        <v>0.1092720022177548</v>
       </c>
       <c r="J9" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K9" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009939511594864059</v>
+        <v>0.009936958123001438</v>
       </c>
       <c r="M9" t="n">
-        <v>5.848028691777847</v>
+        <v>5.837100651625776</v>
       </c>
       <c r="N9" t="n">
-        <v>58.93512615573925</v>
+        <v>58.81397636340532</v>
       </c>
       <c r="O9" t="n">
-        <v>7.676921658825187</v>
+        <v>7.66902708062798</v>
       </c>
       <c r="P9" t="n">
-        <v>362.7727227519156</v>
+        <v>362.7750943013061</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32668,28 +32720,28 @@
         <v>0.0567</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1629898338031561</v>
+        <v>0.1622560838162158</v>
       </c>
       <c r="J10" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K10" t="n">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01626209778362198</v>
+        <v>0.01617602468331281</v>
       </c>
       <c r="M10" t="n">
-        <v>6.743390122220355</v>
+        <v>6.733667059011611</v>
       </c>
       <c r="N10" t="n">
-        <v>78.19053564004119</v>
+        <v>78.03702097757679</v>
       </c>
       <c r="O10" t="n">
-        <v>8.842541243332779</v>
+        <v>8.833856517828258</v>
       </c>
       <c r="P10" t="n">
-        <v>345.5659790114071</v>
+        <v>345.5741523409755</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32746,28 +32798,28 @@
         <v>0.0611</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2022138827051106</v>
+        <v>0.1993584957699762</v>
       </c>
       <c r="J11" t="n">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K11" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02251027332501454</v>
+        <v>0.02194844884621638</v>
       </c>
       <c r="M11" t="n">
-        <v>7.055100338815958</v>
+        <v>7.056699126631072</v>
       </c>
       <c r="N11" t="n">
-        <v>85.82367019283954</v>
+        <v>85.74699995781759</v>
       </c>
       <c r="O11" t="n">
-        <v>9.264106551246027</v>
+        <v>9.259967600257443</v>
       </c>
       <c r="P11" t="n">
-        <v>339.4344957164756</v>
+        <v>339.4664455718052</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32805,7 +32857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L646"/>
+  <dimension ref="A1:L647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47844,7 +47896,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>-36.7801561328893,175.01008939043982</t>
+          <t>-36.78015613288931,175.01008939043982</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -64487,7 +64539,7 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>-36.77952754754277,175.00966328893026</t>
+          <t>-36.77952754754276,175.00966328893026</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
@@ -67013,6 +67065,68 @@
         </is>
       </c>
     </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>-36.77813732630837,175.00945142933284</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>-36.77884342055485,175.0095106586702</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>-36.77950141714622,175.0097431422014</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>-36.78017148656454,175.01005865061776</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>-36.780745905926416,175.01058200484465</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>-36.78131813110732,175.01113192512366</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>-36.78184633084856,175.01174222744675</t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>-36.7823084300796,175.01242019000924</t>
+        </is>
+      </c>
+      <c r="J647" t="inlineStr">
+        <is>
+          <t>-36.78275630062063,175.0131393404641</t>
+        </is>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>-36.78315241089527,175.01390017920028</t>
+        </is>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0171/nzd0171.xlsx
+++ b/data/nzd0171/nzd0171.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L647"/>
+  <dimension ref="A1:L648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24701,6 +24701,48 @@
       <c r="L647" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>348.24</v>
+      </c>
+      <c r="C648" t="n">
+        <v>346.8472727272728</v>
+      </c>
+      <c r="D648" t="n">
+        <v>351.04</v>
+      </c>
+      <c r="E648" t="n">
+        <v>356.63</v>
+      </c>
+      <c r="F648" t="n">
+        <v>354.47</v>
+      </c>
+      <c r="G648" t="n">
+        <v>360.2128571428572</v>
+      </c>
+      <c r="H648" t="n">
+        <v>359.55</v>
+      </c>
+      <c r="I648" t="n">
+        <v>373.08</v>
+      </c>
+      <c r="J648" t="n">
+        <v>357.1972727272728</v>
+      </c>
+      <c r="K648" t="n">
+        <v>353.5672727272727</v>
+      </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -24715,7 +24757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B720"/>
+  <dimension ref="A1:B721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31923,6 +31965,16 @@
       </c>
       <c r="B720" t="n">
         <v>-0.88</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -32096,28 +32148,28 @@
         <v>0.0436</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.153485825074081</v>
+        <v>-0.1550498612994232</v>
       </c>
       <c r="J2" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K2" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01153297662757569</v>
+        <v>0.01180220255678632</v>
       </c>
       <c r="M2" t="n">
-        <v>7.805258607176873</v>
+        <v>7.7989760686627</v>
       </c>
       <c r="N2" t="n">
-        <v>98.18530822284552</v>
+        <v>98.03650721071308</v>
       </c>
       <c r="O2" t="n">
-        <v>9.90884999497144</v>
+        <v>9.901338657510562</v>
       </c>
       <c r="P2" t="n">
-        <v>356.5115860837506</v>
+        <v>356.5290107480837</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32174,28 +32226,28 @@
         <v>0.0567</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1300169169284389</v>
+        <v>-0.1335796502370813</v>
       </c>
       <c r="J3" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K3" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008716348792068174</v>
+        <v>0.009212808718110477</v>
       </c>
       <c r="M3" t="n">
-        <v>7.407596904551323</v>
+        <v>7.411446015865643</v>
       </c>
       <c r="N3" t="n">
-        <v>95.30886824078405</v>
+        <v>95.29360291996981</v>
       </c>
       <c r="O3" t="n">
-        <v>9.762626093463995</v>
+        <v>9.761844237641258</v>
       </c>
       <c r="P3" t="n">
-        <v>359.5775301626349</v>
+        <v>359.6166563078809</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32252,28 +32304,28 @@
         <v>0.0458</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1072759111337388</v>
+        <v>-0.1092505961542287</v>
       </c>
       <c r="J4" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K4" t="n">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006314654524179675</v>
+        <v>0.00656773504356889</v>
       </c>
       <c r="M4" t="n">
-        <v>7.045918649422165</v>
+        <v>7.04308677616838</v>
       </c>
       <c r="N4" t="n">
-        <v>90.9888721312051</v>
+        <v>90.86078396064917</v>
       </c>
       <c r="O4" t="n">
-        <v>9.538808737531385</v>
+        <v>9.532092318093083</v>
       </c>
       <c r="P4" t="n">
-        <v>358.9939850894771</v>
+        <v>359.0155070872823</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32330,28 +32382,28 @@
         <v>0.0411</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1043594927281331</v>
+        <v>-0.1049412118923798</v>
       </c>
       <c r="J5" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K5" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006695624455433591</v>
+        <v>0.006792985825055498</v>
       </c>
       <c r="M5" t="n">
-        <v>6.983252158519745</v>
+        <v>6.972522385614957</v>
       </c>
       <c r="N5" t="n">
-        <v>81.83544733662896</v>
+        <v>81.67637628818019</v>
       </c>
       <c r="O5" t="n">
-        <v>9.046294674430463</v>
+        <v>9.037498342361131</v>
       </c>
       <c r="P5" t="n">
-        <v>360.8881979221275</v>
+        <v>360.8945704574373</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32408,28 +32460,28 @@
         <v>0.0404</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08088989883012282</v>
+        <v>-0.08179026519141698</v>
       </c>
       <c r="J6" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K6" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003776817054266024</v>
+        <v>0.00387426258052237</v>
       </c>
       <c r="M6" t="n">
-        <v>7.111976754420181</v>
+        <v>7.102846763843582</v>
       </c>
       <c r="N6" t="n">
-        <v>86.11771201478412</v>
+        <v>85.95818749811788</v>
       </c>
       <c r="O6" t="n">
-        <v>9.279962931757007</v>
+        <v>9.271363842397616</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9495111167714</v>
+        <v>358.9594095420247</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32486,28 +32538,28 @@
         <v>0.0355</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04794002641249274</v>
+        <v>-0.04640358040052969</v>
       </c>
       <c r="J7" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K7" t="n">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001422482065101649</v>
+        <v>0.001336949311842028</v>
       </c>
       <c r="M7" t="n">
-        <v>7.01468498961607</v>
+        <v>7.009647318851449</v>
       </c>
       <c r="N7" t="n">
-        <v>80.86070201802211</v>
+        <v>80.73528362045201</v>
       </c>
       <c r="O7" t="n">
-        <v>8.992257893211367</v>
+        <v>8.98528149923262</v>
       </c>
       <c r="P7" t="n">
-        <v>357.279149929927</v>
+        <v>357.262243502141</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32564,28 +32616,28 @@
         <v>0.0453</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03080387575071177</v>
+        <v>0.03150275906174598</v>
       </c>
       <c r="J8" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K8" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006822713289673654</v>
+        <v>0.0007160303797582035</v>
       </c>
       <c r="M8" t="n">
-        <v>6.12843828118833</v>
+        <v>6.119794838127534</v>
       </c>
       <c r="N8" t="n">
-        <v>69.7743943662342</v>
+        <v>69.64284235748667</v>
       </c>
       <c r="O8" t="n">
-        <v>8.353106869077768</v>
+        <v>8.345228718105135</v>
       </c>
       <c r="P8" t="n">
-        <v>356.8886853584615</v>
+        <v>356.8810310351936</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32642,28 +32694,28 @@
         <v>0.0506</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1092720022177548</v>
+        <v>0.1121890157264628</v>
       </c>
       <c r="J9" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K9" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009936958123001438</v>
+        <v>0.01048651873844619</v>
       </c>
       <c r="M9" t="n">
-        <v>5.837100651625776</v>
+        <v>5.840122172600042</v>
       </c>
       <c r="N9" t="n">
-        <v>58.81397636340532</v>
+        <v>58.80780426560713</v>
       </c>
       <c r="O9" t="n">
-        <v>7.66902708062798</v>
+        <v>7.668624665845051</v>
       </c>
       <c r="P9" t="n">
-        <v>362.7750943013061</v>
+        <v>362.7427439449128</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32720,28 +32772,28 @@
         <v>0.0567</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1622560838162158</v>
+        <v>0.1651885261453534</v>
       </c>
       <c r="J10" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K10" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01617602468331281</v>
+        <v>0.0167933622480807</v>
       </c>
       <c r="M10" t="n">
-        <v>6.733667059011611</v>
+        <v>6.733805305393218</v>
       </c>
       <c r="N10" t="n">
-        <v>78.03702097757679</v>
+        <v>77.99010950820781</v>
       </c>
       <c r="O10" t="n">
-        <v>8.833856517828258</v>
+        <v>8.831200909740861</v>
       </c>
       <c r="P10" t="n">
-        <v>345.5741523409755</v>
+        <v>345.5414520006456</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32798,28 +32850,28 @@
         <v>0.0611</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1993584957699762</v>
+        <v>0.2029817108682354</v>
       </c>
       <c r="J11" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K11" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02194844884621638</v>
+        <v>0.0227759210295887</v>
       </c>
       <c r="M11" t="n">
-        <v>7.056699126631072</v>
+        <v>7.058568688437265</v>
       </c>
       <c r="N11" t="n">
-        <v>85.74699995781759</v>
+        <v>85.73493434287295</v>
       </c>
       <c r="O11" t="n">
-        <v>9.259967600257443</v>
+        <v>9.259316083970401</v>
       </c>
       <c r="P11" t="n">
-        <v>339.4664455718052</v>
+        <v>339.4258603125075</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32857,7 +32909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L647"/>
+  <dimension ref="A1:L648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67127,6 +67179,68 @@
         </is>
       </c>
     </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>-36.77813934016046,175.0092685167815</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>-36.77887644190228,175.00925377299956</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>-36.779561600736166,175.00955922363846</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>-36.78019506371047,175.01001144640844</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>-36.78078514071883,175.01052392961168</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>-36.781285219708806,175.01117596072655</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>-36.781822692707465,175.01177342156717</t>
+        </is>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>-36.7822495304823,175.01247263784686</t>
+        </is>
+      </c>
+      <c r="J648" t="inlineStr">
+        <is>
+          <t>-36.78268033065062,175.01318325111188</t>
+        </is>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>-36.783021856964965,175.01397563869457</t>
+        </is>
+      </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0171/nzd0171.xlsx
+++ b/data/nzd0171/nzd0171.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L648"/>
+  <dimension ref="A1:L652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24743,6 +24743,140 @@
       <c r="L648" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>386.55</v>
+      </c>
+      <c r="C649" t="n">
+        <v>375.8145454545455</v>
+      </c>
+      <c r="D649" t="n">
+        <v>341.8444444444444</v>
+      </c>
+      <c r="E649" t="inlineStr"/>
+      <c r="F649" t="inlineStr"/>
+      <c r="G649" t="inlineStr"/>
+      <c r="H649" t="inlineStr"/>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="n">
+        <v>338.069090909091</v>
+      </c>
+      <c r="D650" t="n">
+        <v>340.9477777777778</v>
+      </c>
+      <c r="E650" t="inlineStr"/>
+      <c r="F650" t="inlineStr"/>
+      <c r="G650" t="inlineStr"/>
+      <c r="H650" t="inlineStr"/>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:05:23+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr"/>
+      <c r="C651" t="n">
+        <v>335.1354545454545</v>
+      </c>
+      <c r="D651" t="n">
+        <v>338.91</v>
+      </c>
+      <c r="E651" t="n">
+        <v>344.13</v>
+      </c>
+      <c r="F651" t="n">
+        <v>348.37</v>
+      </c>
+      <c r="G651" t="n">
+        <v>361.3657142857143</v>
+      </c>
+      <c r="H651" t="n">
+        <v>375.42</v>
+      </c>
+      <c r="I651" t="n">
+        <v>369.68</v>
+      </c>
+      <c r="J651" t="n">
+        <v>348.2754545454546</v>
+      </c>
+      <c r="K651" t="n">
+        <v>349.0054545454545</v>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>332.16</v>
+      </c>
+      <c r="C652" t="n">
+        <v>331.4709090909091</v>
+      </c>
+      <c r="D652" t="n">
+        <v>331.7322222222222</v>
+      </c>
+      <c r="E652" t="n">
+        <v>332.56</v>
+      </c>
+      <c r="F652" t="n">
+        <v>327.47</v>
+      </c>
+      <c r="G652" t="n">
+        <v>337.47</v>
+      </c>
+      <c r="H652" t="n">
+        <v>342.6122222222222</v>
+      </c>
+      <c r="I652" t="n">
+        <v>355.44</v>
+      </c>
+      <c r="J652" t="n">
+        <v>344.860909090909</v>
+      </c>
+      <c r="K652" t="inlineStr"/>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -24757,7 +24891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B721"/>
+  <dimension ref="A1:B726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31975,6 +32109,56 @@
       </c>
       <c r="B721" t="n">
         <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>-1.24</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
@@ -32148,28 +32332,28 @@
         <v>0.0436</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1550498612994232</v>
+        <v>-0.1502211029215916</v>
       </c>
       <c r="J2" t="n">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="K2" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01180220255678632</v>
+        <v>0.01084111540733546</v>
       </c>
       <c r="M2" t="n">
-        <v>7.7989760686627</v>
+        <v>7.870622574383945</v>
       </c>
       <c r="N2" t="n">
-        <v>98.03650721071308</v>
+        <v>100.5961701802738</v>
       </c>
       <c r="O2" t="n">
-        <v>9.901338657510562</v>
+        <v>10.02976421359315</v>
       </c>
       <c r="P2" t="n">
-        <v>356.5290107480837</v>
+        <v>356.4755289517855</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32226,28 +32410,28 @@
         <v>0.0567</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1335796502370813</v>
+        <v>-0.1501444670792913</v>
       </c>
       <c r="J3" t="n">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="K3" t="n">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009212808718110477</v>
+        <v>0.01137017916135741</v>
       </c>
       <c r="M3" t="n">
-        <v>7.411446015865643</v>
+        <v>7.516416847150697</v>
       </c>
       <c r="N3" t="n">
-        <v>95.29360291996981</v>
+        <v>97.98197882333113</v>
       </c>
       <c r="O3" t="n">
-        <v>9.761844237641258</v>
+        <v>9.898584687890038</v>
       </c>
       <c r="P3" t="n">
-        <v>359.6166563078809</v>
+        <v>359.799385249359</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32304,28 +32488,28 @@
         <v>0.0458</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1092505961542287</v>
+        <v>-0.1359495157796264</v>
       </c>
       <c r="J4" t="n">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="K4" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00656773504356889</v>
+        <v>0.009996081564190851</v>
       </c>
       <c r="M4" t="n">
-        <v>7.04308677616838</v>
+        <v>7.140709898926423</v>
       </c>
       <c r="N4" t="n">
-        <v>90.86078396064917</v>
+        <v>92.73042447934769</v>
       </c>
       <c r="O4" t="n">
-        <v>9.532092318093083</v>
+        <v>9.629663778105012</v>
       </c>
       <c r="P4" t="n">
-        <v>359.0155070872823</v>
+        <v>359.3073826932792</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32382,28 +32566,28 @@
         <v>0.0411</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1049412118923798</v>
+        <v>-0.1195947538626964</v>
       </c>
       <c r="J5" t="n">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="K5" t="n">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006792985825055498</v>
+        <v>0.008687235516491754</v>
       </c>
       <c r="M5" t="n">
-        <v>6.972522385614957</v>
+        <v>7.026951960626315</v>
       </c>
       <c r="N5" t="n">
-        <v>81.67637628818019</v>
+        <v>83.03804654930904</v>
       </c>
       <c r="O5" t="n">
-        <v>9.037498342361131</v>
+        <v>9.112521415574783</v>
       </c>
       <c r="P5" t="n">
-        <v>360.8945704574373</v>
+        <v>361.0558202007917</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32460,28 +32644,28 @@
         <v>0.0404</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08179026519141698</v>
+        <v>-0.09598928512647928</v>
       </c>
       <c r="J6" t="n">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="K6" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00387426258052237</v>
+        <v>0.00525468686545838</v>
       </c>
       <c r="M6" t="n">
-        <v>7.102846763843582</v>
+        <v>7.153015572942416</v>
       </c>
       <c r="N6" t="n">
-        <v>85.95818749811788</v>
+        <v>87.45024889248131</v>
       </c>
       <c r="O6" t="n">
-        <v>9.271363842397616</v>
+        <v>9.351483780260827</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9594095420247</v>
+        <v>359.1162564271032</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32538,28 +32722,28 @@
         <v>0.0355</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04640358040052969</v>
+        <v>-0.05132147655145539</v>
       </c>
       <c r="J7" t="n">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="K7" t="n">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001336949311842028</v>
+        <v>0.001631457168449257</v>
       </c>
       <c r="M7" t="n">
-        <v>7.009647318851449</v>
+        <v>7.027203318097159</v>
       </c>
       <c r="N7" t="n">
-        <v>80.73528362045201</v>
+        <v>81.1505029910272</v>
       </c>
       <c r="O7" t="n">
-        <v>8.98528149923262</v>
+        <v>9.008357396941308</v>
       </c>
       <c r="P7" t="n">
-        <v>357.262243502141</v>
+        <v>357.3167349478765</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32616,28 +32800,28 @@
         <v>0.0453</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03150275906174598</v>
+        <v>0.03244636591888814</v>
       </c>
       <c r="J8" t="n">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="K8" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007160303797582035</v>
+        <v>0.0007533638760406358</v>
       </c>
       <c r="M8" t="n">
-        <v>6.119794838127534</v>
+        <v>6.160189668856584</v>
       </c>
       <c r="N8" t="n">
-        <v>69.64284235748667</v>
+        <v>70.43813041311354</v>
       </c>
       <c r="O8" t="n">
-        <v>8.345228718105135</v>
+        <v>8.392742722919222</v>
       </c>
       <c r="P8" t="n">
-        <v>356.8810310351936</v>
+        <v>356.8708801159152</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32694,28 +32878,28 @@
         <v>0.0506</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1121890157264628</v>
+        <v>0.1097804466918789</v>
       </c>
       <c r="J9" t="n">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="K9" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01048651873844619</v>
+        <v>0.01007679132134798</v>
       </c>
       <c r="M9" t="n">
-        <v>5.840122172600042</v>
+        <v>5.845715153905324</v>
       </c>
       <c r="N9" t="n">
-        <v>58.80780426560713</v>
+        <v>58.81317547875486</v>
       </c>
       <c r="O9" t="n">
-        <v>7.668624665845051</v>
+        <v>7.668974864918704</v>
       </c>
       <c r="P9" t="n">
-        <v>362.7427439449128</v>
+        <v>362.7696616634161</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32772,28 +32956,28 @@
         <v>0.0567</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1651885261453534</v>
+        <v>0.1626431553419228</v>
       </c>
       <c r="J10" t="n">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="K10" t="n">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0167933622480807</v>
+        <v>0.01639671772846674</v>
       </c>
       <c r="M10" t="n">
-        <v>6.733805305393218</v>
+        <v>6.720520417635497</v>
       </c>
       <c r="N10" t="n">
-        <v>77.99010950820781</v>
+        <v>77.72603652849075</v>
       </c>
       <c r="O10" t="n">
-        <v>8.831200909740861</v>
+        <v>8.816237095750701</v>
       </c>
       <c r="P10" t="n">
-        <v>345.5414520006456</v>
+        <v>345.5699677788953</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -32850,28 +33034,28 @@
         <v>0.0611</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2029817108682354</v>
+        <v>0.2047353375783519</v>
       </c>
       <c r="J11" t="n">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="K11" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0227759210295887</v>
+        <v>0.02323758786742347</v>
       </c>
       <c r="M11" t="n">
-        <v>7.058568688437265</v>
+        <v>7.051845574605994</v>
       </c>
       <c r="N11" t="n">
-        <v>85.73493434287295</v>
+        <v>85.59486917720197</v>
       </c>
       <c r="O11" t="n">
-        <v>9.259316083970401</v>
+        <v>9.251749519804456</v>
       </c>
       <c r="P11" t="n">
-        <v>339.4258603125075</v>
+        <v>339.4061746818145</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -32909,7 +33093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L648"/>
+  <dimension ref="A1:L652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67241,6 +67425,186 @@
         </is>
       </c>
     </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>-36.77813461524173,175.00969762757484</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>-36.77883525206565,175.00957420377034</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>-36.779592824260064,175.00946380538963</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr"/>
+      <c r="F649" t="inlineStr"/>
+      <c r="G649" t="inlineStr"/>
+      <c r="H649" t="inlineStr"/>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>-36.7788889238158,175.0091566702526</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>-36.7795958688892,175.00945450106838</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr"/>
+      <c r="F650" t="inlineStr"/>
+      <c r="G650" t="inlineStr"/>
+      <c r="H650" t="inlineStr"/>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:05:23+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr"/>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>-36.7788930952083,175.00912421886068</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>-36.779602788155294,175.00943335592908</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>-36.780254481841304,175.0098924840566</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>-36.78082049257676,175.01047160180266</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>-36.7812781484878,175.01118542204523</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>-36.7817246317571,175.01190282758387</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>-36.7822744382748,175.0124504584227</t>
+        </is>
+      </c>
+      <c r="J651" t="inlineStr">
+        <is>
+          <t>-36.782753232702895,175.01314111372258</t>
+        </is>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>-36.78305913262351,175.01395409358517</t>
+        </is>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>-36.77814132290723,175.00908840446127</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>-36.77889830588187,175.00908368226987</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>-36.77962716024121,175.00935887519972</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>-36.78030947916157,175.00978237233687</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>-36.78094161599047,175.01029231435217</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>-36.781424716266,175.01098931328988</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>-36.78192735132552,175.01163530838858</t>
+        </is>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>-36.78237875792913,175.0123575656216</t>
+        </is>
+      </c>
+      <c r="J652" t="inlineStr">
+        <is>
+          <t>-36.782781133668216,175.0131249869409</t>
+        </is>
+      </c>
+      <c r="K652" t="inlineStr"/>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0171/nzd0171.xlsx
+++ b/data/nzd0171/nzd0171.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L652"/>
+  <dimension ref="A1:L657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24877,6 +24877,216 @@
       <c r="L652" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>354.72</v>
+      </c>
+      <c r="C653" t="n">
+        <v>353.2209090909091</v>
+      </c>
+      <c r="D653" t="n">
+        <v>350.8688888888889</v>
+      </c>
+      <c r="E653" t="n">
+        <v>352</v>
+      </c>
+      <c r="F653" t="n">
+        <v>344.89</v>
+      </c>
+      <c r="G653" t="n">
+        <v>344.7514285714286</v>
+      </c>
+      <c r="H653" t="n">
+        <v>358.3588888888889</v>
+      </c>
+      <c r="I653" t="n">
+        <v>368.05</v>
+      </c>
+      <c r="J653" t="n">
+        <v>347.5409090909091</v>
+      </c>
+      <c r="K653" t="n">
+        <v>342.110909090909</v>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>373.05</v>
+      </c>
+      <c r="C654" t="n">
+        <v>374.5545454545455</v>
+      </c>
+      <c r="D654" t="n">
+        <v>362.78</v>
+      </c>
+      <c r="E654" t="n">
+        <v>367.02</v>
+      </c>
+      <c r="F654" t="n">
+        <v>359.88</v>
+      </c>
+      <c r="G654" t="n">
+        <v>359.4342857142857</v>
+      </c>
+      <c r="H654" t="n">
+        <v>359.8</v>
+      </c>
+      <c r="I654" t="n">
+        <v>368.47</v>
+      </c>
+      <c r="J654" t="n">
+        <v>349.0145454545454</v>
+      </c>
+      <c r="K654" t="n">
+        <v>341.1945454545454</v>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>346.58</v>
+      </c>
+      <c r="C655" t="n">
+        <v>348.4690909090909</v>
+      </c>
+      <c r="D655" t="n">
+        <v>340.5211111111111</v>
+      </c>
+      <c r="E655" t="n">
+        <v>342.82</v>
+      </c>
+      <c r="F655" t="n">
+        <v>337.8</v>
+      </c>
+      <c r="G655" t="n">
+        <v>339.0085714285714</v>
+      </c>
+      <c r="H655" t="n">
+        <v>349.4511111111111</v>
+      </c>
+      <c r="I655" t="n">
+        <v>360.74</v>
+      </c>
+      <c r="J655" t="n">
+        <v>347.1090909090909</v>
+      </c>
+      <c r="K655" t="n">
+        <v>342.5790909090909</v>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>341.4</v>
+      </c>
+      <c r="C656" t="n">
+        <v>340.8209090909091</v>
+      </c>
+      <c r="D656" t="n">
+        <v>345.0211111111111</v>
+      </c>
+      <c r="E656" t="n">
+        <v>345.85</v>
+      </c>
+      <c r="F656" t="n">
+        <v>345.14</v>
+      </c>
+      <c r="G656" t="n">
+        <v>352.0057142857143</v>
+      </c>
+      <c r="H656" t="n">
+        <v>355.5611111111111</v>
+      </c>
+      <c r="I656" t="n">
+        <v>368.61</v>
+      </c>
+      <c r="J656" t="n">
+        <v>354.7009090909091</v>
+      </c>
+      <c r="K656" t="n">
+        <v>350.8809090909091</v>
+      </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>361.46</v>
+      </c>
+      <c r="C657" t="n">
+        <v>361.6863636363637</v>
+      </c>
+      <c r="D657" t="n">
+        <v>361</v>
+      </c>
+      <c r="E657" t="n">
+        <v>355.88</v>
+      </c>
+      <c r="F657" t="n">
+        <v>357.11</v>
+      </c>
+      <c r="G657" t="n">
+        <v>339.0357142857143</v>
+      </c>
+      <c r="H657" t="n">
+        <v>350.68</v>
+      </c>
+      <c r="I657" t="n">
+        <v>356.85</v>
+      </c>
+      <c r="J657" t="n">
+        <v>339.4663636363636</v>
+      </c>
+      <c r="K657" t="n">
+        <v>329.3863636363636</v>
+      </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -24891,7 +25101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B726"/>
+  <dimension ref="A1:B732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32159,6 +32369,66 @@
       </c>
       <c r="B726" t="n">
         <v>0.28</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>-0.53</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>-0.9</v>
       </c>
     </row>
   </sheetData>
@@ -32332,28 +32602,28 @@
         <v>0.0436</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1502211029215916</v>
+        <v>-0.1451721265600223</v>
       </c>
       <c r="J2" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="K2" t="n">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01084111540733546</v>
+        <v>0.01018079870381972</v>
       </c>
       <c r="M2" t="n">
-        <v>7.870622574383945</v>
+        <v>7.88738396781478</v>
       </c>
       <c r="N2" t="n">
-        <v>100.5961701802738</v>
+        <v>100.8897847837426</v>
       </c>
       <c r="O2" t="n">
-        <v>10.02976421359315</v>
+        <v>10.04439071241967</v>
       </c>
       <c r="P2" t="n">
-        <v>356.4755289517855</v>
+        <v>356.4189155605786</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32410,28 +32680,28 @@
         <v>0.0567</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1501444670792913</v>
+        <v>-0.1504505901698969</v>
       </c>
       <c r="J3" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="K3" t="n">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01137017916135741</v>
+        <v>0.01146701112771853</v>
       </c>
       <c r="M3" t="n">
-        <v>7.516416847150697</v>
+        <v>7.539816651068247</v>
       </c>
       <c r="N3" t="n">
-        <v>97.98197882333113</v>
+        <v>98.33332753509613</v>
       </c>
       <c r="O3" t="n">
-        <v>9.898584687890038</v>
+        <v>9.91631622807059</v>
       </c>
       <c r="P3" t="n">
-        <v>359.799385249359</v>
+        <v>359.8028121914959</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32488,28 +32758,28 @@
         <v>0.0458</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1359495157796264</v>
+        <v>-0.1428347351999572</v>
       </c>
       <c r="J4" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="K4" t="n">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009996081564190851</v>
+        <v>0.01111459399437564</v>
       </c>
       <c r="M4" t="n">
-        <v>7.140709898926423</v>
+        <v>7.159288073888129</v>
       </c>
       <c r="N4" t="n">
-        <v>92.73042447934769</v>
+        <v>92.69847018842012</v>
       </c>
       <c r="O4" t="n">
-        <v>9.629663778105012</v>
+        <v>9.628004475924392</v>
       </c>
       <c r="P4" t="n">
-        <v>359.3073826932792</v>
+        <v>359.3829767016713</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32566,28 +32836,28 @@
         <v>0.0411</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1195947538626964</v>
+        <v>-0.1290907483274617</v>
       </c>
       <c r="J5" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="K5" t="n">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008687235516491754</v>
+        <v>0.01016201530637451</v>
       </c>
       <c r="M5" t="n">
-        <v>7.026951960626315</v>
+        <v>7.047296572220105</v>
       </c>
       <c r="N5" t="n">
-        <v>83.03804654930904</v>
+        <v>83.19393844142816</v>
       </c>
       <c r="O5" t="n">
-        <v>9.112521415574783</v>
+        <v>9.121071123581274</v>
       </c>
       <c r="P5" t="n">
-        <v>361.0558202007917</v>
+        <v>361.1606912563461</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32644,28 +32914,28 @@
         <v>0.0404</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.09598928512647928</v>
+        <v>-0.1100537445939998</v>
       </c>
       <c r="J6" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="K6" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00525468686545838</v>
+        <v>0.006920861114437793</v>
       </c>
       <c r="M6" t="n">
-        <v>7.153015572942416</v>
+        <v>7.177189025593828</v>
       </c>
       <c r="N6" t="n">
-        <v>87.45024889248131</v>
+        <v>87.82230009104877</v>
       </c>
       <c r="O6" t="n">
-        <v>9.351483780260827</v>
+        <v>9.371355296383165</v>
       </c>
       <c r="P6" t="n">
-        <v>359.1162564271032</v>
+        <v>359.2720132391949</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32722,28 +32992,28 @@
         <v>0.0355</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05132147655145539</v>
+        <v>-0.06781504209857893</v>
       </c>
       <c r="J7" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="K7" t="n">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001631457168449257</v>
+        <v>0.002845169398438707</v>
       </c>
       <c r="M7" t="n">
-        <v>7.027203318097159</v>
+        <v>7.056051435636838</v>
       </c>
       <c r="N7" t="n">
-        <v>81.1505029910272</v>
+        <v>81.75898710771463</v>
       </c>
       <c r="O7" t="n">
-        <v>9.008357396941308</v>
+        <v>9.042067634546571</v>
       </c>
       <c r="P7" t="n">
-        <v>357.3167349478765</v>
+        <v>357.4996767990154</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32800,28 +33070,28 @@
         <v>0.0453</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03244636591888814</v>
+        <v>0.02706242913850567</v>
       </c>
       <c r="J8" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="K8" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007533638760406358</v>
+        <v>0.0005316778741504269</v>
       </c>
       <c r="M8" t="n">
-        <v>6.160189668856584</v>
+        <v>6.140764213212458</v>
       </c>
       <c r="N8" t="n">
-        <v>70.43813041311354</v>
+        <v>69.99529073565061</v>
       </c>
       <c r="O8" t="n">
-        <v>8.392742722919222</v>
+        <v>8.366318828233275</v>
       </c>
       <c r="P8" t="n">
-        <v>356.8708801159152</v>
+        <v>356.9303435375554</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -32878,28 +33148,28 @@
         <v>0.0506</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1097804466918789</v>
+        <v>0.1077391291507611</v>
       </c>
       <c r="J9" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="K9" t="n">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01007679132134798</v>
+        <v>0.009843052442852107</v>
       </c>
       <c r="M9" t="n">
-        <v>5.845715153905324</v>
+        <v>5.831222050845509</v>
       </c>
       <c r="N9" t="n">
-        <v>58.81317547875486</v>
+        <v>58.46652193801999</v>
       </c>
       <c r="O9" t="n">
-        <v>7.668974864918704</v>
+        <v>7.646340427813817</v>
       </c>
       <c r="P9" t="n">
-        <v>362.7696616634161</v>
+        <v>362.792541346284</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -32956,28 +33226,28 @@
         <v>0.0567</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1626431553419228</v>
+        <v>0.1583820966341758</v>
       </c>
       <c r="J10" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="K10" t="n">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01639671772846674</v>
+        <v>0.01578822524985379</v>
       </c>
       <c r="M10" t="n">
-        <v>6.720520417635497</v>
+        <v>6.696280389391964</v>
       </c>
       <c r="N10" t="n">
-        <v>77.72603652849075</v>
+        <v>77.22918887697075</v>
       </c>
       <c r="O10" t="n">
-        <v>8.816237095750701</v>
+        <v>8.788013932452017</v>
       </c>
       <c r="P10" t="n">
-        <v>345.5699677788953</v>
+        <v>345.6178744267826</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33034,28 +33304,28 @@
         <v>0.0611</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2047353375783519</v>
+        <v>0.1978406489267711</v>
       </c>
       <c r="J11" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="K11" t="n">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02323758786742347</v>
+        <v>0.02198371503249219</v>
       </c>
       <c r="M11" t="n">
-        <v>7.051845574605994</v>
+        <v>7.04400375893908</v>
       </c>
       <c r="N11" t="n">
-        <v>85.59486917720197</v>
+        <v>85.31905732636534</v>
       </c>
       <c r="O11" t="n">
-        <v>9.251749519804456</v>
+        <v>9.236831563169556</v>
       </c>
       <c r="P11" t="n">
-        <v>339.4061746818145</v>
+        <v>339.484027653973</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33093,7 +33363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L652"/>
+  <dimension ref="A1:L657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67605,6 +67875,316 @@
         </is>
       </c>
     </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>-36.77813854106602,175.00934109935204</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>-36.7788673790222,175.0093242770537</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>-36.7795621817449,175.0095574480942</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>-36.78021707219942,175.00996738277516</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>-36.78084066051219,175.01044174919483</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>-36.781380054615596,175.01104907102612</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>-36.78183005259422,175.01176370908095</t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>-36.7822863793622,175.0124398253408</t>
+        </is>
+      </c>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>-36.78275923482765,175.01313764449043</t>
+        </is>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>-36.78311546952292,175.01392153114946</t>
+        </is>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>-36.778136280424896,175.00954641391883</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>-36.7788370437327,175.0095602658845</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>-36.77952173743888,175.00968104435495</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>-36.78014567527333,175.0101103277728</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>-36.780753787659386,175.01057033833288</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>-36.781289995192246,175.01116957111134</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>-36.78182114795503,175.0117754601018</t>
+        </is>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>-36.782283302517676,175.01244256515363</t>
+        </is>
+      </c>
+      <c r="J654" t="inlineStr">
+        <is>
+          <t>-36.78274719343617,175.01314460442222</t>
+        </is>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>-36.783122957338065,175.01391720322732</t>
+        </is>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>-36.77813954485962,175.0092499230977</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>-36.77887413579037,175.00927171327126</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>-36.77959731763443,175.00945007373312</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>-36.78026070885481,175.00988001679127</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>-36.780881749761,175.01038092874683</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>-36.781415279227446,175.01100194015106</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>-36.78188509381323,175.01169107375893</t>
+        </is>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>-36.78233993109928,175.01239213951627</t>
+        </is>
+      </c>
+      <c r="J655" t="inlineStr">
+        <is>
+          <t>-36.78276276330443,175.0131356050282</t>
+        </is>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>-36.78311164390303,175.01392374233956</t>
+        </is>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>-36.77814018360098,175.00919190184203</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>-36.778885010946,175.00918711039878</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>-36.779582037891615,175.00949676827614</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>-36.780246305913266,175.00990885328733</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>-36.780839211666496,175.01044389377927</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>-36.78133555942156,175.01110860593528</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>-36.7818473400865,175.01174089560325</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>-36.78228227690283,175.01244347842453</t>
+        </is>
+      </c>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>-36.78270072896412,175.01317146089437</t>
+        </is>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>-36.78304380785639,175.0139629512123</t>
+        </is>
+      </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>-36.778137709862186,175.00941659418245</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>-36.77885534165417,175.00941792040715</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>-36.779527781455975,175.0096625741014</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>-36.780198628801536,175.0100043086726</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>-36.78076984089159,175.01054657638613</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>-36.78141511274301,175.01100216290902</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>-36.78187750050297,175.01170109430473</t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>-36.78236842852813,175.01236676358562</t>
+        </is>
+      </c>
+      <c r="J657" t="inlineStr">
+        <is>
+          <t>-36.78282521362383,175.01309950866377</t>
+        </is>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>-36.7832194446577,175.01386143392742</t>
+        </is>
+      </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0171/nzd0171.xlsx
+++ b/data/nzd0171/nzd0171.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L657"/>
+  <dimension ref="A1:L660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25087,6 +25087,114 @@
       <c r="L657" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>343.72</v>
+      </c>
+      <c r="C658" t="n">
+        <v>337.9863636363636</v>
+      </c>
+      <c r="D658" t="n">
+        <v>337.9411111111111</v>
+      </c>
+      <c r="E658" t="n">
+        <v>341.87</v>
+      </c>
+      <c r="F658" t="n">
+        <v>339.16</v>
+      </c>
+      <c r="G658" t="n">
+        <v>350.7114285714285</v>
+      </c>
+      <c r="H658" t="n">
+        <v>355.2511111111111</v>
+      </c>
+      <c r="I658" t="n">
+        <v>362.17</v>
+      </c>
+      <c r="J658" t="n">
+        <v>352.3963636363636</v>
+      </c>
+      <c r="K658" t="n">
+        <v>335.5763636363636</v>
+      </c>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:59+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr"/>
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="inlineStr"/>
+      <c r="E659" t="inlineStr"/>
+      <c r="F659" t="inlineStr"/>
+      <c r="G659" t="inlineStr"/>
+      <c r="H659" t="n">
+        <v>356.5866666666667</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>367.08</v>
+      </c>
+      <c r="C660" t="n">
+        <v>378.3872727272728</v>
+      </c>
+      <c r="D660" t="n">
+        <v>378.5788888888889</v>
+      </c>
+      <c r="E660" t="n">
+        <v>376.37</v>
+      </c>
+      <c r="F660" t="n">
+        <v>375.24</v>
+      </c>
+      <c r="G660" t="n">
+        <v>369.7171428571429</v>
+      </c>
+      <c r="H660" t="n">
+        <v>356.6788888888889</v>
+      </c>
+      <c r="I660" t="n">
+        <v>356.72</v>
+      </c>
+      <c r="J660" t="n">
+        <v>338.9972727272728</v>
+      </c>
+      <c r="K660" t="n">
+        <v>330.9172727272727</v>
+      </c>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -25101,7 +25209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B732"/>
+  <dimension ref="A1:B736"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32429,6 +32537,46 @@
       </c>
       <c r="B732" t="n">
         <v>-0.9</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>-0.95</v>
       </c>
     </row>
   </sheetData>
@@ -32602,28 +32750,28 @@
         <v>0.0436</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1451721265600223</v>
+        <v>-0.1431989255682923</v>
       </c>
       <c r="J2" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="K2" t="n">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01018079870381972</v>
+        <v>0.009923478415221121</v>
       </c>
       <c r="M2" t="n">
-        <v>7.88738396781478</v>
+        <v>7.90129677592949</v>
       </c>
       <c r="N2" t="n">
-        <v>100.8897847837426</v>
+        <v>101.0483417955096</v>
       </c>
       <c r="O2" t="n">
-        <v>10.04439071241967</v>
+        <v>10.05228042761987</v>
       </c>
       <c r="P2" t="n">
-        <v>356.4189155605786</v>
+        <v>356.3965400743317</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32680,28 +32828,28 @@
         <v>0.0567</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1504505901698969</v>
+        <v>-0.1487242710717308</v>
       </c>
       <c r="J3" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="K3" t="n">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01146701112771853</v>
+        <v>0.01110785508315015</v>
       </c>
       <c r="M3" t="n">
-        <v>7.539816651068247</v>
+        <v>7.588621481011667</v>
       </c>
       <c r="N3" t="n">
-        <v>98.33332753509613</v>
+        <v>99.5499697109715</v>
       </c>
       <c r="O3" t="n">
-        <v>9.91631622807059</v>
+        <v>9.977473112515588</v>
       </c>
       <c r="P3" t="n">
-        <v>359.8028121914959</v>
+        <v>359.7833722554698</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32758,28 +32906,28 @@
         <v>0.0458</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1428347351999572</v>
+        <v>-0.1408901173516047</v>
       </c>
       <c r="J4" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="K4" t="n">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01111459399437564</v>
+        <v>0.01070539517833347</v>
       </c>
       <c r="M4" t="n">
-        <v>7.159288073888129</v>
+        <v>7.209618630505947</v>
       </c>
       <c r="N4" t="n">
-        <v>92.69847018842012</v>
+        <v>93.97565116238866</v>
       </c>
       <c r="O4" t="n">
-        <v>9.628004475924392</v>
+        <v>9.694103938084668</v>
       </c>
       <c r="P4" t="n">
-        <v>359.3829767016713</v>
+        <v>359.3612681551437</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32836,28 +32984,28 @@
         <v>0.0411</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1290907483274617</v>
+        <v>-0.1281012265702373</v>
       </c>
       <c r="J5" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="K5" t="n">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01016201530637451</v>
+        <v>0.009936562817619121</v>
       </c>
       <c r="M5" t="n">
-        <v>7.047296572220105</v>
+        <v>7.087202113807293</v>
       </c>
       <c r="N5" t="n">
-        <v>83.19393844142816</v>
+        <v>84.04517387933012</v>
       </c>
       <c r="O5" t="n">
-        <v>9.121071123581274</v>
+        <v>9.167615495827151</v>
       </c>
       <c r="P5" t="n">
-        <v>361.1606912563461</v>
+        <v>361.1494854091863</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32914,28 +33062,28 @@
         <v>0.0404</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1100537445939998</v>
+        <v>-0.1094333379774389</v>
       </c>
       <c r="J6" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="K6" t="n">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006920861114437793</v>
+        <v>0.006793374768376825</v>
       </c>
       <c r="M6" t="n">
-        <v>7.177189025593828</v>
+        <v>7.219294360918282</v>
       </c>
       <c r="N6" t="n">
-        <v>87.82230009104877</v>
+        <v>88.75157526245125</v>
       </c>
       <c r="O6" t="n">
-        <v>9.371355296383165</v>
+        <v>9.420805446587423</v>
       </c>
       <c r="P6" t="n">
-        <v>359.2720132391949</v>
+        <v>359.2648715602566</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32992,28 +33140,28 @@
         <v>0.0355</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06781504209857893</v>
+        <v>-0.06457159824919374</v>
       </c>
       <c r="J7" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="K7" t="n">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002845169398438707</v>
+        <v>0.002584365533076505</v>
       </c>
       <c r="M7" t="n">
-        <v>7.056051435636838</v>
+        <v>7.066323967745531</v>
       </c>
       <c r="N7" t="n">
-        <v>81.75898710771463</v>
+        <v>81.86906538100273</v>
       </c>
       <c r="O7" t="n">
-        <v>9.042067634546571</v>
+        <v>9.048152594922497</v>
       </c>
       <c r="P7" t="n">
-        <v>357.4996767990154</v>
+        <v>357.4634419089784</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33070,28 +33218,28 @@
         <v>0.0453</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02706242913850567</v>
+        <v>0.02547589033268708</v>
       </c>
       <c r="J8" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="K8" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0005316778741504269</v>
+        <v>0.0004760462049314684</v>
       </c>
       <c r="M8" t="n">
-        <v>6.140764213212458</v>
+        <v>6.113803865614962</v>
       </c>
       <c r="N8" t="n">
-        <v>69.99529073565061</v>
+        <v>69.60148873968758</v>
       </c>
       <c r="O8" t="n">
-        <v>8.366318828233275</v>
+        <v>8.34275066987427</v>
       </c>
       <c r="P8" t="n">
-        <v>356.9303435375554</v>
+        <v>356.9479081837263</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33148,28 +33296,28 @@
         <v>0.0506</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1077391291507611</v>
+        <v>0.1030743201954508</v>
       </c>
       <c r="J9" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="K9" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009843052442852107</v>
+        <v>0.009053143725059387</v>
       </c>
       <c r="M9" t="n">
-        <v>5.831222050845509</v>
+        <v>5.832964721867848</v>
       </c>
       <c r="N9" t="n">
-        <v>58.46652193801999</v>
+        <v>58.41111243528599</v>
       </c>
       <c r="O9" t="n">
-        <v>7.646340427813817</v>
+        <v>7.642716299542068</v>
       </c>
       <c r="P9" t="n">
-        <v>362.792541346284</v>
+        <v>362.8449102362939</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33226,28 +33374,28 @@
         <v>0.0567</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1583820966341758</v>
+        <v>0.155273666266014</v>
       </c>
       <c r="J10" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="K10" t="n">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01578822524985379</v>
+        <v>0.01524529532376107</v>
       </c>
       <c r="M10" t="n">
-        <v>6.696280389391964</v>
+        <v>6.697372383927</v>
       </c>
       <c r="N10" t="n">
-        <v>77.22918887697075</v>
+        <v>77.16402282193049</v>
       </c>
       <c r="O10" t="n">
-        <v>8.788013932452017</v>
+        <v>8.784305483185936</v>
       </c>
       <c r="P10" t="n">
-        <v>345.6178744267826</v>
+        <v>345.6530205610538</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33304,28 +33452,28 @@
         <v>0.0611</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1978406489267711</v>
+        <v>0.1888523424532605</v>
       </c>
       <c r="J11" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="K11" t="n">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02198371503249219</v>
+        <v>0.020091284146318</v>
       </c>
       <c r="M11" t="n">
-        <v>7.04400375893908</v>
+        <v>7.066682741007783</v>
       </c>
       <c r="N11" t="n">
-        <v>85.31905732636534</v>
+        <v>85.51701080866292</v>
       </c>
       <c r="O11" t="n">
-        <v>9.236831563169556</v>
+        <v>9.247540797891238</v>
       </c>
       <c r="P11" t="n">
-        <v>339.484027653973</v>
+        <v>339.5858675142423</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33363,7 +33511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L657"/>
+  <dimension ref="A1:L660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68185,6 +68333,156 @@
         </is>
       </c>
     </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>-36.77813989752726,175.0092178881962</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>-36.778889041447364,175.00915575513747</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>-36.779606078012264,175.00942330218643</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>-36.78026522462719,175.0098709756434</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>-36.7808738680456,175.01039259529762</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>-36.78134349810929,175.01109798391832</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>-36.78184925557881,175.01173836781854</t>
+        </is>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>-36.78232945517945,175.01240146793853</t>
+        </is>
+      </c>
+      <c r="J658" t="inlineStr">
+        <is>
+          <t>-36.78271955988989,175.01316057662046</t>
+        </is>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>-36.78316886477307,175.01389066892492</t>
+        </is>
+      </c>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:59+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr"/>
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="inlineStr"/>
+      <c r="E659" t="inlineStr"/>
+      <c r="F659" t="inlineStr"/>
+      <c r="G659" t="inlineStr"/>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>-36.781841003170626,175.01174925813024</t>
+        </is>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>-36.77813701674463,175.00947954387485</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>-36.778831593750525,175.00960266279907</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>-36.779468091948964,175.0098449821346</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>-36.780101230366,175.01019931137316</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>-36.780664770376966,175.01070210114904</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>-36.78122692373551,175.01125396086434</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>-36.78184043332876,175.01175001012336</t>
+        </is>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>-36.78236938088427,175.0123659155465</t>
+        </is>
+      </c>
+      <c r="J660" t="inlineStr">
+        <is>
+          <t>-36.78282904666322,175.01309729316006</t>
+        </is>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>-36.783206935255194,175.0138686643224</t>
+        </is>
+      </c>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0171/nzd0171.xlsx
+++ b/data/nzd0171/nzd0171.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L660"/>
+  <dimension ref="A1:L663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25193,6 +25193,116 @@
         <v>330.9172727272727</v>
       </c>
       <c r="L660" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>363.81</v>
+      </c>
+      <c r="C661" t="n">
+        <v>374.3718181818182</v>
+      </c>
+      <c r="D661" t="n">
+        <v>372.0711111111111</v>
+      </c>
+      <c r="E661" t="n">
+        <v>371.37</v>
+      </c>
+      <c r="F661" t="n">
+        <v>367.58</v>
+      </c>
+      <c r="G661" t="n">
+        <v>354.0757142857143</v>
+      </c>
+      <c r="H661" t="n">
+        <v>348.6211111111111</v>
+      </c>
+      <c r="I661" t="n">
+        <v>355.69</v>
+      </c>
+      <c r="J661" t="n">
+        <v>335.1618181818182</v>
+      </c>
+      <c r="K661" t="n">
+        <v>331.3318181818182</v>
+      </c>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:12:03+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr"/>
+      <c r="C662" t="inlineStr"/>
+      <c r="D662" t="inlineStr"/>
+      <c r="E662" t="inlineStr"/>
+      <c r="F662" t="inlineStr"/>
+      <c r="G662" t="n">
+        <v>333.4185714285715</v>
+      </c>
+      <c r="H662" t="n">
+        <v>334.2233333333333</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>402.21</v>
+      </c>
+      <c r="C663" t="n">
+        <v>415.6490909090909</v>
+      </c>
+      <c r="D663" t="n">
+        <v>380.5711111111111</v>
+      </c>
+      <c r="E663" t="n">
+        <v>358.27</v>
+      </c>
+      <c r="F663" t="n">
+        <v>357.13</v>
+      </c>
+      <c r="G663" t="n">
+        <v>343.2128571428572</v>
+      </c>
+      <c r="H663" t="n">
+        <v>340.8211111111111</v>
+      </c>
+      <c r="I663" t="n">
+        <v>352.07</v>
+      </c>
+      <c r="J663" t="n">
+        <v>329.6590909090909</v>
+      </c>
+      <c r="K663" t="n">
+        <v>327.129090909091</v>
+      </c>
+      <c r="L663" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -25209,7 +25319,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B736"/>
+  <dimension ref="A1:B739"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32577,6 +32687,36 @@
       </c>
       <c r="B736" t="n">
         <v>-0.95</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>-0.76</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -33511,7 +33651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L660"/>
+  <dimension ref="A1:L663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68483,6 +68623,160 @@
         </is>
       </c>
     </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>-36.7781374200395,175.00944291656305</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>-36.77883730356309,175.0095582445893</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>-36.77949018928441,175.00977745395636</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>-36.78012499770406,175.01015172657316</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>-36.78070916312752,175.0106363913455</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>-36.781322862776776,175.01112559412334</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>-36.78189022238671,175.01168430581228</t>
+        </is>
+      </c>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>-36.7823769264751,175.0123591964665</t>
+        </is>
+      </c>
+      <c r="J661" t="inlineStr">
+        <is>
+          <t>-36.782860386958674,175.01307917840376</t>
+        </is>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>-36.783203547910986,175.01387062219615</t>
+        </is>
+      </c>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:12:03+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr"/>
+      <c r="C662" t="inlineStr"/>
+      <c r="D662" t="inlineStr"/>
+      <c r="E662" t="inlineStr"/>
+      <c r="F662" t="inlineStr"/>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>-36.78144956625193,175.01095606371294</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>-36.781979186258276,175.01156690399176</t>
+        </is>
+      </c>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-04 22:12:06+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>-36.778132683388506,175.00987303539634</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>-36.77877860818281,175.01001484573626</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>-36.77946132729708,175.00986565448844</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>-36.78018726804325,175.01002705425512</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>-36.780769724983806,175.01054674795256</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>-36.78138949165885,175.01103644417654</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>-36.78193841860168,175.0116207033781</t>
+        </is>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>-36.78240344592745,175.0123355818254</t>
+        </is>
+      </c>
+      <c r="J663" t="inlineStr">
+        <is>
+          <t>-36.782905350881464,175.01305318913495</t>
+        </is>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>-36.78323788934013,175.01385077295487</t>
+        </is>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0171/nzd0171.xlsx
+++ b/data/nzd0171/nzd0171.xlsx
@@ -32890,28 +32890,28 @@
         <v>0.0436</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1431989255682923</v>
+        <v>-0.1218141085468129</v>
       </c>
       <c r="J2" t="n">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="K2" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009923478415221121</v>
+        <v>0.006928807831925732</v>
       </c>
       <c r="M2" t="n">
-        <v>7.90129677592949</v>
+        <v>7.982484306971815</v>
       </c>
       <c r="N2" t="n">
-        <v>101.0483417955096</v>
+        <v>105.3656509440277</v>
       </c>
       <c r="O2" t="n">
-        <v>10.05228042761987</v>
+        <v>10.26477719894727</v>
       </c>
       <c r="P2" t="n">
-        <v>356.3965400743317</v>
+        <v>356.1548483159388</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32968,28 +32968,28 @@
         <v>0.0567</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1487242710717308</v>
+        <v>-0.1202307106120632</v>
       </c>
       <c r="J3" t="n">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="K3" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01110785508315015</v>
+        <v>0.006828951098890923</v>
       </c>
       <c r="M3" t="n">
-        <v>7.588621481011667</v>
+        <v>7.710831266383722</v>
       </c>
       <c r="N3" t="n">
-        <v>99.5499697109715</v>
+        <v>106.6211301451099</v>
       </c>
       <c r="O3" t="n">
-        <v>9.977473112515588</v>
+        <v>10.32575082718491</v>
       </c>
       <c r="P3" t="n">
-        <v>359.7833722554698</v>
+        <v>359.4658789003575</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33046,28 +33046,28 @@
         <v>0.0458</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1408901173516047</v>
+        <v>-0.1258536926616525</v>
       </c>
       <c r="J4" t="n">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="K4" t="n">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01070539517833347</v>
+        <v>0.008467833316969653</v>
       </c>
       <c r="M4" t="n">
-        <v>7.209618630505947</v>
+        <v>7.253087516568964</v>
       </c>
       <c r="N4" t="n">
-        <v>93.97565116238866</v>
+        <v>95.31763085383882</v>
       </c>
       <c r="O4" t="n">
-        <v>9.694103938084668</v>
+        <v>9.763074866753753</v>
       </c>
       <c r="P4" t="n">
-        <v>359.3612681551437</v>
+        <v>359.1950089055955</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33124,28 +33124,28 @@
         <v>0.0411</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1281012265702373</v>
+        <v>-0.1230811150715698</v>
       </c>
       <c r="J5" t="n">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="K5" t="n">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009936562817619121</v>
+        <v>0.009203341043666824</v>
       </c>
       <c r="M5" t="n">
-        <v>7.087202113807293</v>
+        <v>7.085436937434104</v>
       </c>
       <c r="N5" t="n">
-        <v>84.04517387933012</v>
+        <v>84.07399609753661</v>
       </c>
       <c r="O5" t="n">
-        <v>9.167615495827151</v>
+        <v>9.169187319361329</v>
       </c>
       <c r="P5" t="n">
-        <v>361.1494854091863</v>
+        <v>361.0937304033251</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33202,28 +33202,28 @@
         <v>0.0404</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1094333379774389</v>
+        <v>-0.1051172832307204</v>
       </c>
       <c r="J6" t="n">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="K6" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006793374768376825</v>
+        <v>0.006298041405638388</v>
       </c>
       <c r="M6" t="n">
-        <v>7.219294360918282</v>
+        <v>7.212333609502499</v>
       </c>
       <c r="N6" t="n">
-        <v>88.75157526245125</v>
+        <v>88.6482687614205</v>
       </c>
       <c r="O6" t="n">
-        <v>9.420805446587423</v>
+        <v>9.415320959023145</v>
       </c>
       <c r="P6" t="n">
-        <v>359.2648715602566</v>
+        <v>359.2167865578319</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33280,28 +33280,28 @@
         <v>0.0355</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.06457159824919374</v>
+        <v>-0.07762777829678383</v>
       </c>
       <c r="J7" t="n">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="K7" t="n">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002584365533076505</v>
+        <v>0.003711690874356299</v>
       </c>
       <c r="M7" t="n">
-        <v>7.066323967745531</v>
+        <v>7.092222645013313</v>
       </c>
       <c r="N7" t="n">
-        <v>81.86906538100273</v>
+        <v>82.65591710475498</v>
       </c>
       <c r="O7" t="n">
-        <v>9.048152594922497</v>
+        <v>9.091529965014413</v>
       </c>
       <c r="P7" t="n">
-        <v>357.4634419089784</v>
+        <v>357.6092410153012</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33358,28 +33358,28 @@
         <v>0.0453</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02547589033268708</v>
+        <v>0.007827347011465076</v>
       </c>
       <c r="J8" t="n">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="K8" t="n">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004760462049314684</v>
+        <v>4.431539171645404e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>6.113803865614962</v>
+        <v>6.178036700022729</v>
       </c>
       <c r="N8" t="n">
-        <v>69.60148873968758</v>
+        <v>70.93213258315124</v>
       </c>
       <c r="O8" t="n">
-        <v>8.34275066987427</v>
+        <v>8.422121620064106</v>
       </c>
       <c r="P8" t="n">
-        <v>356.9479081837263</v>
+        <v>357.1440098491317</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33436,28 +33436,28 @@
         <v>0.0506</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1030743201954508</v>
+        <v>0.09428955976798327</v>
       </c>
       <c r="J9" t="n">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="K9" t="n">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009053143725059387</v>
+        <v>0.007569499964464543</v>
       </c>
       <c r="M9" t="n">
-        <v>5.832964721867848</v>
+        <v>5.857252916160765</v>
       </c>
       <c r="N9" t="n">
-        <v>58.41111243528599</v>
+        <v>58.72970017802822</v>
       </c>
       <c r="O9" t="n">
-        <v>7.642716299542068</v>
+        <v>7.663530529594583</v>
       </c>
       <c r="P9" t="n">
-        <v>362.8449102362939</v>
+        <v>362.943752879906</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33514,28 +33514,28 @@
         <v>0.0567</v>
       </c>
       <c r="I10" t="n">
-        <v>0.155273666266014</v>
+        <v>0.1420962366412153</v>
       </c>
       <c r="J10" t="n">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="K10" t="n">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01524529532376107</v>
+        <v>0.01269332282008429</v>
       </c>
       <c r="M10" t="n">
-        <v>6.697372383927</v>
+        <v>6.743486941978697</v>
       </c>
       <c r="N10" t="n">
-        <v>77.16402282193049</v>
+        <v>78.06888455360725</v>
       </c>
       <c r="O10" t="n">
-        <v>8.784305483185936</v>
+        <v>8.835659825593517</v>
       </c>
       <c r="P10" t="n">
-        <v>345.6530205610538</v>
+        <v>345.8020489088418</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33592,28 +33592,28 @@
         <v>0.0611</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1888523424532605</v>
+        <v>0.1768584124792218</v>
       </c>
       <c r="J11" t="n">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="K11" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L11" t="n">
-        <v>0.020091284146318</v>
+        <v>0.0175982033616614</v>
       </c>
       <c r="M11" t="n">
-        <v>7.066682741007783</v>
+        <v>7.106438791177066</v>
       </c>
       <c r="N11" t="n">
-        <v>85.51701080866292</v>
+        <v>86.13047262709424</v>
       </c>
       <c r="O11" t="n">
-        <v>9.247540797891238</v>
+        <v>9.280650442026907</v>
       </c>
       <c r="P11" t="n">
-        <v>339.5858675142423</v>
+        <v>339.7221069991459</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">

--- a/data/nzd0171/nzd0171.xlsx
+++ b/data/nzd0171/nzd0171.xlsx
@@ -32881,13 +32881,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0392</v>
+        <v>0.0397</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0436</v>
+        <v>0.0462</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1218141085468129</v>
@@ -32959,13 +32959,13 @@
         <v>0.111543980400993</v>
       </c>
       <c r="F3" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0498</v>
+        <v>0.0544</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0567</v>
+        <v>0.0711</v>
       </c>
       <c r="I3" t="n">
         <v>-0.1202467614698859</v>
@@ -33037,13 +33037,13 @@
         <v>0.2205140900616565</v>
       </c>
       <c r="F4" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0445</v>
+        <v>0.0481</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0458</v>
+        <v>0.0625</v>
       </c>
       <c r="I4" t="n">
         <v>-0.1258177462853031</v>
@@ -33115,13 +33115,13 @@
         <v>0.332058070463767</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0397</v>
+        <v>0.0448</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0411</v>
+        <v>0.0593</v>
       </c>
       <c r="I5" t="n">
         <v>-0.1230811150715698</v>
@@ -33193,13 +33193,13 @@
         <v>0.4425701032633372</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0369</v>
+        <v>0.0422</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0404</v>
+        <v>0.0574</v>
       </c>
       <c r="I6" t="n">
         <v>-0.1051172832307204</v>
@@ -33271,13 +33271,13 @@
         <v>0.5541140836654876</v>
       </c>
       <c r="F7" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0348</v>
+        <v>0.0419</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0355</v>
+        <v>0.0515</v>
       </c>
       <c r="I7" t="n">
         <v>-0.07763513150699031</v>
@@ -33349,13 +33349,13 @@
         <v>0.6656580640668679</v>
       </c>
       <c r="F8" t="n">
-        <v>0.045</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0421</v>
+        <v>0.0587</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0453</v>
+        <v>0.0833</v>
       </c>
       <c r="I8" t="n">
         <v>0.007854445755079185</v>
@@ -33427,13 +33427,13 @@
         <v>0.7769120391972183</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0481</v>
+        <v>0.0615</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0506</v>
+        <v>0.1041</v>
       </c>
       <c r="I9" t="n">
         <v>0.09428955976798341</v>
@@ -33505,13 +33505,13 @@
         <v>0.8884560195983839</v>
       </c>
       <c r="F10" t="n">
-        <v>0.055</v>
+        <v>0.115</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0514</v>
+        <v>0.0823</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0567</v>
+        <v>0.1889</v>
       </c>
       <c r="I10" t="n">
         <v>0.1421101583282291</v>
@@ -33583,13 +33583,13 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.055</v>
+        <v>0.12</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0537</v>
+        <v>0.0849</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0611</v>
+        <v>0.2</v>
       </c>
       <c r="I11" t="n">
         <v>0.1768702289293494</v>
